--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH259"/>
+  <dimension ref="A1:AH261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24775,14 +24775,18 @@
       <c r="B259" t="n">
         <v>333.66</v>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>358.610465116279</v>
+      </c>
       <c r="D259" t="n">
         <v>351.5588888888889</v>
       </c>
       <c r="E259" t="n">
         <v>343.9955172413793</v>
       </c>
-      <c r="F259" t="inlineStr"/>
+      <c r="F259" t="n">
+        <v>343.4218181818182</v>
+      </c>
       <c r="G259" t="n">
         <v>312.9333333333333</v>
       </c>
@@ -24798,7 +24802,9 @@
       <c r="K259" t="n">
         <v>266.1305555555556</v>
       </c>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>326.3439393939394</v>
+      </c>
       <c r="M259" t="n">
         <v>324.4577419354839</v>
       </c>
@@ -24861,6 +24867,222 @@
       <c r="AH259" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>312.01</v>
+      </c>
+      <c r="C260" t="n">
+        <v>325.2113953488372</v>
+      </c>
+      <c r="D260" t="n">
+        <v>316.2411111111111</v>
+      </c>
+      <c r="E260" t="n">
+        <v>314.1737931034482</v>
+      </c>
+      <c r="F260" t="n">
+        <v>304.9327272727273</v>
+      </c>
+      <c r="G260" t="n">
+        <v>304.2766666666667</v>
+      </c>
+      <c r="H260" t="n">
+        <v>313.4401234567901</v>
+      </c>
+      <c r="I260" t="n">
+        <v>316.9209803921569</v>
+      </c>
+      <c r="J260" t="n">
+        <v>314.4861788617886</v>
+      </c>
+      <c r="K260" t="n">
+        <v>308.8444444444444</v>
+      </c>
+      <c r="L260" t="n">
+        <v>323.8342424242425</v>
+      </c>
+      <c r="M260" t="n">
+        <v>329.5425806451613</v>
+      </c>
+      <c r="N260" t="n">
+        <v>331.2840740740741</v>
+      </c>
+      <c r="O260" t="n">
+        <v>321.9688524590164</v>
+      </c>
+      <c r="P260" t="n">
+        <v>312.5446788990826</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>316.0316666666667</v>
+      </c>
+      <c r="R260" t="n">
+        <v>333.1274698795181</v>
+      </c>
+      <c r="S260" t="n">
+        <v>339.2957142857143</v>
+      </c>
+      <c r="T260" t="n">
+        <v>339.51</v>
+      </c>
+      <c r="U260" t="n">
+        <v>326.1766666666667</v>
+      </c>
+      <c r="V260" t="n">
+        <v>324.2645454545454</v>
+      </c>
+      <c r="W260" t="n">
+        <v>314.95</v>
+      </c>
+      <c r="X260" t="n">
+        <v>308.92</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>305.1888888888889</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>307.49</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>310.8934146341463</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>339.26</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>336.5111111111111</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>336.6766666666667</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>345.0766666666667</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>353.7466666666667</v>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>301.9</v>
+      </c>
+      <c r="C261" t="n">
+        <v>314.72</v>
+      </c>
+      <c r="D261" t="n">
+        <v>313.3422222222222</v>
+      </c>
+      <c r="E261" t="n">
+        <v>301.5989655172414</v>
+      </c>
+      <c r="F261" t="n">
+        <v>299.7718181818182</v>
+      </c>
+      <c r="G261" t="n">
+        <v>308.3033333333333</v>
+      </c>
+      <c r="H261" t="n">
+        <v>308.0713580246913</v>
+      </c>
+      <c r="I261" t="n">
+        <v>314.7843137254902</v>
+      </c>
+      <c r="J261" t="n">
+        <v>304.2240650406504</v>
+      </c>
+      <c r="K261" t="n">
+        <v>302.0038888888889</v>
+      </c>
+      <c r="L261" t="n">
+        <v>314.3939393939394</v>
+      </c>
+      <c r="M261" t="n">
+        <v>329.5058064516129</v>
+      </c>
+      <c r="N261" t="n">
+        <v>323.8048148148148</v>
+      </c>
+      <c r="O261" t="n">
+        <v>311.0554098360656</v>
+      </c>
+      <c r="P261" t="n">
+        <v>311.3150458715596</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>331.8208333333333</v>
+      </c>
+      <c r="R261" t="n">
+        <v>342.1192771084337</v>
+      </c>
+      <c r="S261" t="n">
+        <v>350.2771428571428</v>
+      </c>
+      <c r="T261" t="n">
+        <v>339.2846153846153</v>
+      </c>
+      <c r="U261" t="n">
+        <v>329.3733333333333</v>
+      </c>
+      <c r="V261" t="n">
+        <v>319.6463636363636</v>
+      </c>
+      <c r="W261" t="n">
+        <v>318.0684615384615</v>
+      </c>
+      <c r="X261" t="n">
+        <v>313.42</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>318.0877777777778</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>307.19</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>319.6648780487805</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>332.625</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>342.3222222222223</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>336.5446153846154</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>339.7933333333333</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>348.5133333333333</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>354.6433333333333</v>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24875,7 +25097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27533,6 +27755,26 @@
       </c>
       <c r="B265" t="n">
         <v>-1.09</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -27701,28 +27943,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5062257882982516</v>
+        <v>-0.488701695445618</v>
       </c>
       <c r="J2" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K2" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05199613430451044</v>
+        <v>0.04932438852279808</v>
       </c>
       <c r="M2" t="n">
-        <v>13.35000328903672</v>
+        <v>13.31567759468987</v>
       </c>
       <c r="N2" t="n">
-        <v>262.2334635347643</v>
+        <v>260.7230013092764</v>
       </c>
       <c r="O2" t="n">
-        <v>16.19362416306999</v>
+        <v>16.14691925133945</v>
       </c>
       <c r="P2" t="n">
-        <v>310.3071066861835</v>
+        <v>310.1382963266874</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27772,28 +28014,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.515615525270408</v>
+        <v>-1.407529173825752</v>
       </c>
       <c r="J3" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.199252983771405</v>
+        <v>0.173158603748863</v>
       </c>
       <c r="M3" t="n">
-        <v>18.60295316731368</v>
+        <v>18.85861149954905</v>
       </c>
       <c r="N3" t="n">
-        <v>509.2960671334407</v>
+        <v>529.1272916845154</v>
       </c>
       <c r="O3" t="n">
-        <v>22.56758886397571</v>
+        <v>23.00276704408657</v>
       </c>
       <c r="P3" t="n">
-        <v>332.1543118436887</v>
+        <v>331.1086988842567</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27843,28 +28085,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.8319101838417148</v>
+        <v>-0.7933234430028309</v>
       </c>
       <c r="J4" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K4" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07043406311775857</v>
+        <v>0.06512345749099646</v>
       </c>
       <c r="M4" t="n">
-        <v>18.79604378904424</v>
+        <v>18.80826250216478</v>
       </c>
       <c r="N4" t="n">
-        <v>494.2996763886502</v>
+        <v>493.4560921669019</v>
       </c>
       <c r="O4" t="n">
-        <v>22.23285128787242</v>
+        <v>22.21387161588232</v>
       </c>
       <c r="P4" t="n">
-        <v>315.4172658416709</v>
+        <v>315.034700772492</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27914,28 +28156,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.6958947497164663</v>
+        <v>-0.6656601955969643</v>
       </c>
       <c r="J5" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06647539198053387</v>
+        <v>0.06190045743294614</v>
       </c>
       <c r="M5" t="n">
-        <v>15.84443738114044</v>
+        <v>15.85619821285079</v>
       </c>
       <c r="N5" t="n">
-        <v>374.5846318577845</v>
+        <v>373.7779684675695</v>
       </c>
       <c r="O5" t="n">
-        <v>19.35418900025998</v>
+        <v>19.33333826496525</v>
       </c>
       <c r="P5" t="n">
-        <v>309.4358574709706</v>
+        <v>309.1470010867188</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27991,28 +28233,28 @@
         <v>0.0752</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6979762419566122</v>
+        <v>-0.6319842381564904</v>
       </c>
       <c r="J6" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K6" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08780519929987329</v>
+        <v>0.07210735112034272</v>
       </c>
       <c r="M6" t="n">
-        <v>13.57602930220372</v>
+        <v>13.67680522360348</v>
       </c>
       <c r="N6" t="n">
-        <v>273.4914811481185</v>
+        <v>282.4653918523034</v>
       </c>
       <c r="O6" t="n">
-        <v>16.53757785010001</v>
+        <v>16.80670675213628</v>
       </c>
       <c r="P6" t="n">
-        <v>311.251632028509</v>
+        <v>310.6215358534009</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28068,28 +28310,28 @@
         <v>0.0877</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.7647998838048162</v>
+        <v>-0.7295778165688132</v>
       </c>
       <c r="J7" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K7" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08640028726972837</v>
+        <v>0.08007835623687354</v>
       </c>
       <c r="M7" t="n">
-        <v>15.15127515936594</v>
+        <v>15.17696083807629</v>
       </c>
       <c r="N7" t="n">
-        <v>348.9111897051254</v>
+        <v>348.8498636694202</v>
       </c>
       <c r="O7" t="n">
-        <v>18.67916458798748</v>
+        <v>18.67752295325641</v>
       </c>
       <c r="P7" t="n">
-        <v>307.0519333393113</v>
+        <v>306.725718085812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28139,28 +28381,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.8555599144655794</v>
+        <v>-0.7660183134814903</v>
       </c>
       <c r="J8" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K8" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05041933592486614</v>
+        <v>0.04069167679953645</v>
       </c>
       <c r="M8" t="n">
-        <v>23.19440907178948</v>
+        <v>23.4636465280459</v>
       </c>
       <c r="N8" t="n">
-        <v>730.4723262269339</v>
+        <v>741.5566041854269</v>
       </c>
       <c r="O8" t="n">
-        <v>27.02725154777921</v>
+        <v>27.23153694130074</v>
       </c>
       <c r="P8" t="n">
-        <v>289.9917475591628</v>
+        <v>289.1095767481175</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28210,28 +28452,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.5929987404390172</v>
+        <v>-0.4801978876351153</v>
       </c>
       <c r="J9" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K9" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02493639198299225</v>
+        <v>0.01616729612144685</v>
       </c>
       <c r="M9" t="n">
-        <v>22.78732465426645</v>
+        <v>23.10710134690848</v>
       </c>
       <c r="N9" t="n">
-        <v>707.2821745480936</v>
+        <v>729.6616621225542</v>
       </c>
       <c r="O9" t="n">
-        <v>26.59477720433269</v>
+        <v>27.01225022323305</v>
       </c>
       <c r="P9" t="n">
-        <v>277.481131949482</v>
+        <v>276.3325563938308</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28281,28 +28523,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.9687081920799897</v>
+        <v>-0.8934547633503674</v>
       </c>
       <c r="J10" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K10" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07160566135741653</v>
+        <v>0.06151600095521625</v>
       </c>
       <c r="M10" t="n">
-        <v>20.15801649867872</v>
+        <v>20.26494875371185</v>
       </c>
       <c r="N10" t="n">
-        <v>640.7709599173247</v>
+        <v>648.2662878959964</v>
       </c>
       <c r="O10" t="n">
-        <v>25.31345412853261</v>
+        <v>25.46107397373482</v>
       </c>
       <c r="P10" t="n">
-        <v>297.0303286831485</v>
+        <v>296.2788195017073</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28352,28 +28594,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-1.021026481073696</v>
+        <v>-0.9809427241468468</v>
       </c>
       <c r="J11" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K11" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1063385965222406</v>
+        <v>0.1003631375274754</v>
       </c>
       <c r="M11" t="n">
-        <v>15.98191357497297</v>
+        <v>15.97958922660836</v>
       </c>
       <c r="N11" t="n">
-        <v>494.6644010181856</v>
+        <v>493.2804970578337</v>
       </c>
       <c r="O11" t="n">
-        <v>22.24105215627592</v>
+        <v>22.2099188890422</v>
       </c>
       <c r="P11" t="n">
-        <v>312.2156140415407</v>
+        <v>311.8470610451478</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28429,28 +28671,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6219051154505452</v>
+        <v>-0.5550123647461456</v>
       </c>
       <c r="J12" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K12" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0455568253071118</v>
+        <v>0.0371147318216124</v>
       </c>
       <c r="M12" t="n">
-        <v>16.89466440679952</v>
+        <v>16.95808498681225</v>
       </c>
       <c r="N12" t="n">
-        <v>464.2710490189804</v>
+        <v>465.5459127159774</v>
       </c>
       <c r="O12" t="n">
-        <v>21.54694987739519</v>
+        <v>21.5765129878759</v>
       </c>
       <c r="P12" t="n">
-        <v>313.9259331725593</v>
+        <v>313.3142500918548</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28506,28 +28748,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7462068829376447</v>
+        <v>-0.6725209610258176</v>
       </c>
       <c r="J13" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K13" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04607206180189161</v>
+        <v>0.0376735585101392</v>
       </c>
       <c r="M13" t="n">
-        <v>21.18551446484251</v>
+        <v>21.35171072508086</v>
       </c>
       <c r="N13" t="n">
-        <v>667.7928976778701</v>
+        <v>676.3629312147806</v>
       </c>
       <c r="O13" t="n">
-        <v>25.84168914134426</v>
+        <v>26.00697850990731</v>
       </c>
       <c r="P13" t="n">
-        <v>308.7917223327255</v>
+        <v>308.1175819830443</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28583,28 +28825,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.001267399367293</v>
+        <v>-0.9263839424951597</v>
       </c>
       <c r="J14" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K14" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08570707208596706</v>
+        <v>0.07400927434623594</v>
       </c>
       <c r="M14" t="n">
-        <v>20.15396907878395</v>
+        <v>20.31673752935781</v>
       </c>
       <c r="N14" t="n">
-        <v>611.9411401212583</v>
+        <v>621.1360363659063</v>
       </c>
       <c r="O14" t="n">
-        <v>24.73744409031091</v>
+        <v>24.9226009149508</v>
       </c>
       <c r="P14" t="n">
-        <v>313.5565219630318</v>
+        <v>312.8649824068658</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28654,28 +28896,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-1.095106558818433</v>
+        <v>-1.046317325093649</v>
       </c>
       <c r="J15" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K15" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1160340390958385</v>
+        <v>0.1080854085884372</v>
       </c>
       <c r="M15" t="n">
-        <v>17.87251819141281</v>
+        <v>17.89800610918297</v>
       </c>
       <c r="N15" t="n">
-        <v>506.3150099201983</v>
+        <v>506.8603437761875</v>
       </c>
       <c r="O15" t="n">
-        <v>22.50144461851724</v>
+        <v>22.51355910948305</v>
       </c>
       <c r="P15" t="n">
-        <v>321.0039418897746</v>
+        <v>320.5449486436161</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28725,28 +28967,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.9675368084560908</v>
+        <v>-0.9444205561099493</v>
       </c>
       <c r="J16" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K16" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0963173528572312</v>
+        <v>0.09385718568906709</v>
       </c>
       <c r="M16" t="n">
-        <v>16.34795434858944</v>
+        <v>16.27334879333453</v>
       </c>
       <c r="N16" t="n">
-        <v>492.2814674206177</v>
+        <v>488.2657047534845</v>
       </c>
       <c r="O16" t="n">
-        <v>22.18741687129481</v>
+        <v>22.0967351605047</v>
       </c>
       <c r="P16" t="n">
-        <v>325.279932016469</v>
+        <v>325.0621547040234</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -28796,28 +29038,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.3351682709520426</v>
+        <v>0.3272848243956074</v>
       </c>
       <c r="J17" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K17" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01654833777132436</v>
+        <v>0.01612117051634265</v>
       </c>
       <c r="M17" t="n">
-        <v>14.37621216298778</v>
+        <v>14.30978079570375</v>
       </c>
       <c r="N17" t="n">
-        <v>383.1574219456573</v>
+        <v>379.8048020158463</v>
       </c>
       <c r="O17" t="n">
-        <v>19.5744073204186</v>
+        <v>19.48858132383798</v>
       </c>
       <c r="P17" t="n">
-        <v>319.2339826428487</v>
+        <v>319.3059859050604</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -28867,28 +29109,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.06733363725507407</v>
+        <v>0.07396595791725721</v>
       </c>
       <c r="J18" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K18" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008883333190832232</v>
+        <v>0.001091814853257711</v>
       </c>
       <c r="M18" t="n">
-        <v>13.50473951823058</v>
+        <v>13.41570177774425</v>
       </c>
       <c r="N18" t="n">
-        <v>289.8079248571403</v>
+        <v>287.3666993664776</v>
       </c>
       <c r="O18" t="n">
-        <v>17.02374591143619</v>
+        <v>16.95189368083925</v>
       </c>
       <c r="P18" t="n">
-        <v>332.2131959723352</v>
+        <v>332.1512897408089</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -28944,28 +29186,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1368244909279945</v>
+        <v>-0.1038662333471685</v>
       </c>
       <c r="J19" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K19" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00416894032983961</v>
+        <v>0.002416757733070263</v>
       </c>
       <c r="M19" t="n">
-        <v>12.86379431754519</v>
+        <v>12.90612423538229</v>
       </c>
       <c r="N19" t="n">
-        <v>255.499601798098</v>
+        <v>256.811313023304</v>
       </c>
       <c r="O19" t="n">
-        <v>15.9843549071615</v>
+        <v>16.02533347619649</v>
       </c>
       <c r="P19" t="n">
-        <v>328.7734053541963</v>
+        <v>328.4658180612268</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29015,28 +29257,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.4147688459818141</v>
+        <v>-0.3813346511416748</v>
       </c>
       <c r="J20" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K20" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03028597609012962</v>
+        <v>0.02590158162777256</v>
       </c>
       <c r="M20" t="n">
-        <v>14.01690244175593</v>
+        <v>14.05598871966061</v>
       </c>
       <c r="N20" t="n">
-        <v>309.9654970430968</v>
+        <v>310.5428089823947</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6058370162596</v>
+        <v>17.6222248590351</v>
       </c>
       <c r="P20" t="n">
-        <v>330.3738793754956</v>
+        <v>330.0559701442146</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29092,28 +29334,28 @@
         <v>0.1008</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5009335814758473</v>
+        <v>-0.475041684999755</v>
       </c>
       <c r="J21" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K21" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03704025851530046</v>
+        <v>0.033861933410269</v>
       </c>
       <c r="M21" t="n">
-        <v>14.64091346872597</v>
+        <v>14.65143599761607</v>
       </c>
       <c r="N21" t="n">
-        <v>365.7945899458755</v>
+        <v>364.4228600711201</v>
       </c>
       <c r="O21" t="n">
-        <v>19.12575723849583</v>
+        <v>19.08986275673872</v>
       </c>
       <c r="P21" t="n">
-        <v>325.6174539706238</v>
+        <v>325.3713823808111</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29163,28 +29405,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.5571690159821326</v>
+        <v>-0.5277810419997422</v>
       </c>
       <c r="J22" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K22" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04633252930079934</v>
+        <v>0.04217106944554572</v>
       </c>
       <c r="M22" t="n">
-        <v>14.64544988669152</v>
+        <v>14.64594849810334</v>
       </c>
       <c r="N22" t="n">
-        <v>358.436161002599</v>
+        <v>357.9756873004382</v>
       </c>
       <c r="O22" t="n">
-        <v>18.93241033261742</v>
+        <v>18.92024543446618</v>
       </c>
       <c r="P22" t="n">
-        <v>318.503131645757</v>
+        <v>318.2218117198984</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29234,28 +29476,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.4739155059195095</v>
+        <v>-0.4436398584019541</v>
       </c>
       <c r="J23" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K23" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0382881607842962</v>
+        <v>0.03403192907880426</v>
       </c>
       <c r="M23" t="n">
-        <v>14.44354788070784</v>
+        <v>14.45873359659844</v>
       </c>
       <c r="N23" t="n">
-        <v>317.3768920366297</v>
+        <v>317.1603553427445</v>
       </c>
       <c r="O23" t="n">
-        <v>17.81507485352306</v>
+        <v>17.80899647208524</v>
       </c>
       <c r="P23" t="n">
-        <v>311.2282743731437</v>
+        <v>310.9393738279282</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -29311,28 +29553,28 @@
         <v>0.1434</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4902698328014505</v>
+        <v>-0.4709243202318003</v>
       </c>
       <c r="J24" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K24" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05215573443886545</v>
+        <v>0.04899625395386797</v>
       </c>
       <c r="M24" t="n">
-        <v>12.08933002299399</v>
+        <v>12.05762229368855</v>
       </c>
       <c r="N24" t="n">
-        <v>244.0482920468514</v>
+        <v>242.749333518909</v>
       </c>
       <c r="O24" t="n">
-        <v>15.62204506608694</v>
+        <v>15.58041506247215</v>
       </c>
       <c r="P24" t="n">
-        <v>313.0719318140848</v>
+        <v>312.8857910004613</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -29382,28 +29624,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.2325696480134219</v>
+        <v>-0.2200736613186117</v>
       </c>
       <c r="J25" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K25" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01689869369534991</v>
+        <v>0.0153838433553386</v>
       </c>
       <c r="M25" t="n">
-        <v>10.53123345395137</v>
+        <v>10.49921642842249</v>
       </c>
       <c r="N25" t="n">
-        <v>176.4175677645176</v>
+        <v>175.5688093510401</v>
       </c>
       <c r="O25" t="n">
-        <v>13.28222751516166</v>
+        <v>13.25023808657943</v>
       </c>
       <c r="P25" t="n">
-        <v>310.664756021591</v>
+        <v>310.5468302268582</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -29459,28 +29701,28 @@
         <v>0.2</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1388579693197507</v>
+        <v>-0.1436756663574699</v>
       </c>
       <c r="J26" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K26" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005938652309839698</v>
+        <v>0.006478733592509056</v>
       </c>
       <c r="M26" t="n">
-        <v>10.52533686148395</v>
+        <v>10.45355341159912</v>
       </c>
       <c r="N26" t="n">
-        <v>179.6899449587974</v>
+        <v>178.0604273959656</v>
       </c>
       <c r="O26" t="n">
-        <v>13.40484781557767</v>
+        <v>13.34392848436942</v>
       </c>
       <c r="P26" t="n">
-        <v>313.544107454372</v>
+        <v>313.5896343323402</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -29530,28 +29772,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.09340560339506231</v>
+        <v>0.08308782762694397</v>
       </c>
       <c r="J27" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K27" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002068368266276766</v>
+        <v>0.001664499905697836</v>
       </c>
       <c r="M27" t="n">
-        <v>11.73722338487958</v>
+        <v>11.685978360138</v>
       </c>
       <c r="N27" t="n">
-        <v>234.7961392843175</v>
+        <v>233.1386310987812</v>
       </c>
       <c r="O27" t="n">
-        <v>15.32305907070509</v>
+        <v>15.26887785984226</v>
       </c>
       <c r="P27" t="n">
-        <v>318.8950551403748</v>
+        <v>318.9932449344516</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -29607,28 +29849,28 @@
         <v>0.1158</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1022469357458604</v>
+        <v>-0.09143597581372948</v>
       </c>
       <c r="J28" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K28" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002087576834945315</v>
+        <v>0.001698903593298384</v>
       </c>
       <c r="M28" t="n">
-        <v>12.98040895550309</v>
+        <v>12.91322316303688</v>
       </c>
       <c r="N28" t="n">
-        <v>278.2317155042428</v>
+        <v>276.1170202336814</v>
       </c>
       <c r="O28" t="n">
-        <v>16.68027923939653</v>
+        <v>16.6167692477714</v>
       </c>
       <c r="P28" t="n">
-        <v>332.308190723666</v>
+        <v>332.2051852626229</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -29684,28 +29926,28 @@
         <v>0.1241</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1521747014725899</v>
+        <v>-0.1493345641080504</v>
       </c>
       <c r="J29" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K29" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005521861168548359</v>
+        <v>0.005414987117243975</v>
       </c>
       <c r="M29" t="n">
-        <v>11.96703454737306</v>
+        <v>11.882400382661</v>
       </c>
       <c r="N29" t="n">
-        <v>229.2485253549584</v>
+        <v>227.256029923214</v>
       </c>
       <c r="O29" t="n">
-        <v>15.1409552325789</v>
+        <v>15.07501343028304</v>
       </c>
       <c r="P29" t="n">
-        <v>341.6486164493725</v>
+        <v>341.6211628416916</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -29761,28 +30003,28 @@
         <v>0.0798</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2990016764620777</v>
+        <v>-0.3028089296216482</v>
       </c>
       <c r="J30" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K30" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02052596709704035</v>
+        <v>0.02142874306824505</v>
       </c>
       <c r="M30" t="n">
-        <v>12.29247891183383</v>
+        <v>12.20285463318348</v>
       </c>
       <c r="N30" t="n">
-        <v>234.4681043616417</v>
+        <v>232.4023513079632</v>
       </c>
       <c r="O30" t="n">
-        <v>15.31235136618938</v>
+        <v>15.24474831894457</v>
       </c>
       <c r="P30" t="n">
-        <v>343.9153505435675</v>
+        <v>343.9517979231039</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -29838,28 +30080,28 @@
         <v>0.0711</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.467324964027055</v>
+        <v>-0.457536210295273</v>
       </c>
       <c r="J31" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K31" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05551093033334042</v>
+        <v>0.05418220101244475</v>
       </c>
       <c r="M31" t="n">
-        <v>11.41371803760308</v>
+        <v>11.36373689985958</v>
       </c>
       <c r="N31" t="n">
-        <v>202.2481069652507</v>
+        <v>200.6922701109279</v>
       </c>
       <c r="O31" t="n">
-        <v>14.2213960976147</v>
+        <v>14.16658992527588</v>
       </c>
       <c r="P31" t="n">
-        <v>344.4756438644298</v>
+        <v>344.3798554230543</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -29915,28 +30157,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.4536817154545102</v>
+        <v>-0.4370377517369949</v>
       </c>
       <c r="J32" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K32" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03802198834711967</v>
+        <v>0.03589844218009375</v>
       </c>
       <c r="M32" t="n">
-        <v>12.37583073022853</v>
+        <v>12.35778911577418</v>
       </c>
       <c r="N32" t="n">
-        <v>281.2166071692291</v>
+        <v>279.5117492216564</v>
       </c>
       <c r="O32" t="n">
-        <v>16.76951421983443</v>
+        <v>16.71860488263469</v>
       </c>
       <c r="P32" t="n">
-        <v>348.6775715199985</v>
+        <v>348.5140206402935</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -29992,28 +30234,28 @@
         <v>0.0796</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.5376698830908171</v>
+        <v>-0.5179591145759287</v>
       </c>
       <c r="J33" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K33" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04907805824274403</v>
+        <v>0.04638838380049226</v>
       </c>
       <c r="M33" t="n">
-        <v>13.25845667264955</v>
+        <v>13.2335722612869</v>
       </c>
       <c r="N33" t="n">
-        <v>292.147572129009</v>
+        <v>290.4376846431088</v>
       </c>
       <c r="O33" t="n">
-        <v>17.09232494802884</v>
+        <v>17.04223238437702</v>
       </c>
       <c r="P33" t="n">
-        <v>357.1535143186489</v>
+        <v>356.9552909652298</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -30050,7 +30292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH259"/>
+  <dimension ref="A1:AH261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67249,7 +67491,11 @@
           <t>-46.66567525569997,169.0559137650814</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>-46.6653622009722,169.05506241131522</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>-46.66486387809262,169.0545307332469</t>
@@ -67260,7 +67506,11 @@
           <t>-46.66436258898326,169.05400416679265</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>-46.6639036645748,169.05340897846065</t>
+        </is>
+      </c>
       <c r="G259" t="inlineStr">
         <is>
           <t>-46.66327855418861,169.05302952804215</t>
@@ -67286,7 +67536,11 @@
           <t>-46.66155331676858,169.05038038253088</t>
         </is>
       </c>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>-46.661644915608875,169.04916131964578</t>
+        </is>
+      </c>
       <c r="M259" t="inlineStr">
         <is>
           <t>-46.661386774632646,169.04833120190995</t>
@@ -67387,6 +67641,350 @@
       <c r="AH259" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>-46.66554991997635,169.0561300311583</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>-46.665168849565724,169.05539604094034</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>-46.664659420028116,169.05488352696483</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-46.664189949030394,169.05430205804748</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-46.66367150087264,169.0537815926006</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>-46.66321964923123,169.05310338697453</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>-46.66292829787965,169.05225673049995</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-46.66261023888629,169.05148407668943</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>-46.66224907432518,169.05075665826845</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>-46.66186454125035,169.05005376249366</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>-46.66162545978652,169.04917790781033</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>-46.66142886434846,169.04830531171893</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>-46.66124252165379,169.04744423267925</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>-46.66096373644515,169.04663834001522</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>-46.66068403651695,169.04583295782072</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>-46.66051082537838,169.04495704330466</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>-46.6605041345267,169.04401521977712</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>-46.660604758954904,169.0431133062185</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>-46.66064984392134,169.04221728949545</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>-46.66057322437237,169.04131497377153</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>-46.660599206811646,169.0404179698938</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>-46.660558689880574,169.03951752617598</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>-46.66054870530711,169.0386048920965</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>-46.66060615075096,169.03769276173475</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>-46.66073084850518,169.03680628415958</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr">
+        <is>
+          <t>-46.6608647638835,169.0359266959932</t>
+        </is>
+      </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>-46.66122105165489,169.03509079003155</t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>-46.66130090892758,169.03420013447598</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>-46.66142894044067,169.03332149893168</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>-46.661664524248266,169.03248481697634</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>-46.66192957819062,169.03166209648086</t>
+        </is>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>-46.66219696197812,169.03084036015238</t>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>-46.665491391225885,169.05623102158162</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>-46.66510811334399,169.0555008409845</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>-46.664642638024944,169.05491248421254</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>-46.66411715226195,169.0544276683003</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>-46.66364037050297,169.0538315552872</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>-46.663247049002386,169.05306903135727</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>-46.66288917915937,169.0522977838352</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>-46.662594670461196,169.05150041519065</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>-46.6621743016648,169.05083512983353</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>-46.66181469925844,169.05010607038506</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>-46.6615522760817,169.04924030459648</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>-46.661428559950366,169.0483054989602</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>-46.66117974599938,169.04747919509057</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>-46.66087213693243,169.04668935636758</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>-46.66067371590226,169.04583870598154</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>-46.66064518220547,169.0448905978767</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>-46.66058432257956,169.0440004654759</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>-46.66070341021349,169.04311841428165</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>-46.66064781918744,169.04221718467988</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>-46.66060194149636,169.04131646005874</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>-46.66055771957414,169.04041582314855</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>-46.66058670443903,169.0395189754616</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>-46.660589048861084,169.0386091747118</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>-46.66072123314794,169.03771332449912</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>-46.660728176100314,169.03680575913546</t>
+        </is>
+      </c>
+      <c r="AA261" t="inlineStr">
+        <is>
+          <t>-46.66094290026252,169.03594204592864</t>
+        </is>
+      </c>
+      <c r="AB261" t="inlineStr">
+        <is>
+          <t>-46.661161946907455,169.0350791794642</t>
+        </is>
+      </c>
+      <c r="AC261" t="inlineStr">
+        <is>
+          <t>-46.66135221956209,169.0342143582996</t>
+        </is>
+      </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>-46.661470556364414,169.0333377814272</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>-46.661691423199,169.0324961933088</t>
+        </is>
+      </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>-46.66195923900649,169.03167464060766</t>
+        </is>
+      </c>
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t>-46.66220470084562,169.03084363299413</t>
+        </is>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -27788,7 +27788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27879,35 +27879,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27966,27 +27971,28 @@
       <c r="P2" t="n">
         <v>310.1382963266874</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.05924664955893 -46.663743589120884, 169.05051014811545 -46.66880655919984)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.0592466495589</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.66374358912088</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.0505101481154</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.66880655919984</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.0548783988372</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.66627507416036</v>
       </c>
     </row>
@@ -28037,27 +28043,28 @@
       <c r="P3" t="n">
         <v>331.1086988842567</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.05864451540086 -46.66328610493345, 169.04990803127262 -46.668349057606164)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.0586445154009</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.66328610493345</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.0499080312726</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.66834905760616</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.0542762733367</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.66581758126981</v>
       </c>
     </row>
@@ -28108,27 +28115,28 @@
       <c r="P4" t="n">
         <v>315.034700772492</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.05804238124244 -46.66282861687429, 169.04930591443042 -46.667891552140894)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.0580423812424</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.66282861687429</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.0493059144304</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.66789155214089</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.0536741478364</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.6653600845076</v>
       </c>
     </row>
@@ -28179,27 +28187,28 @@
       <c r="P5" t="n">
         <v>309.1470010867188</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.0574402470837 -46.66237112494345, 169.0487037975889 -46.667434042803954)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.0574402470837</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.66237112494345</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.0487037975889</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.66743404280395</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.0530720223363</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.6649025838737</v>
       </c>
     </row>
@@ -28256,27 +28265,28 @@
       <c r="P6" t="n">
         <v>310.6215358534009</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.05673354373758 -46.66183211971505, 169.04826676322836 -46.66710727346203)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.0567335437376</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.66183211971505</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.0482667632284</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.66710727346203</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.052500153483</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.66446969658854</v>
       </c>
     </row>
@@ -28333,27 +28343,28 @@
       <c r="P7" t="n">
         <v>306.725718085812</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.05569938153621 -46.66114914134881, 169.04823832599465 -46.66709930791699)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.0556993815362</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.66114914134881</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.0482383259946</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.66709930791699</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.0519688537654</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.6641242246329</v>
       </c>
     </row>
@@ -28404,27 +28415,28 @@
       <c r="P8" t="n">
         <v>289.1095767481175</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.05465341200835 -46.66064443436192, 169.04796708371896 -46.667015388675715)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.0546534120083</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.66064443436192</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.047967083719</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.66701538867571</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.0513102478637</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.66382991151882</v>
       </c>
     </row>
@@ -28475,27 +28487,28 @@
       <c r="P9" t="n">
         <v>276.3325563938308</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.05390737986565 -46.6603010239294, 169.0472210254694 -46.66667195991899)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.0539073798656</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.6603010239294</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.0472210254694</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.66667195991899</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.0505642026675</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.6634864919242</v>
       </c>
     </row>
@@ -28546,27 +28559,28 @@
       <c r="P10" t="n">
         <v>296.2788195017073</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.0531613477223 -46.65995761131559, 169.04647496722103 -46.66632852898061)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.0531613477223</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.65995761131559</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.046474967221</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.66632852898061</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.0498181574717</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.6631430701481</v>
       </c>
     </row>
@@ -28617,27 +28631,28 @@
       <c r="P11" t="n">
         <v>311.8470610451478</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.05241531557837 -46.659614196520465, 169.04572890897396 -46.66598509586053)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.0524153155784</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.65961419652047</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.045728908974</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.66598509586053</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.0490721122762</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.66279964619049</v>
       </c>
     </row>
@@ -28694,27 +28709,28 @@
       <c r="P12" t="n">
         <v>313.3142500918548</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.05131822928163 -46.65911498896115, 169.0455391770635 -46.665892820383306)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.0513182292816</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.65911498896115</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.0455391770635</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.66589282038331</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.0484287031726</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.66250390467223</v>
       </c>
     </row>
@@ -28771,27 +28787,28 @@
       <c r="P13" t="n">
         <v>308.1175819830443</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.0499831385139 -46.65870106281904, 169.04553175130158 -46.66593740683452)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.0499831385139</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.65870106281904</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.0455317513016</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.66593740683452</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.0477574449077</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.66231923482678</v>
       </c>
     </row>
@@ -28848,27 +28865,28 @@
       <c r="P14" t="n">
         <v>312.8649824068658</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.0489927656426 -46.65846194241791, 169.04490608323496 -46.665799370736465)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.0489927656426</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.65846194241791</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.044906083235</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.66579937073647</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.0469494244388</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.66213065657719</v>
       </c>
     </row>
@@ -28919,27 +28937,28 @@
       <c r="P15" t="n">
         <v>320.5449486436161</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.04814335041576 -46.65826135140101, 169.04405660286193 -46.66559876471234)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.0481433504158</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.65826135140101</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.0440566028619</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.66559876471234</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.0460999766389</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.66193005805668</v>
       </c>
     </row>
@@ -28990,27 +29009,28 @@
       <c r="P16" t="n">
         <v>325.0621547040234</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (169.04729393518832 -46.6580607596402, 169.04320712248995 -46.66539815794332)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>169.0472939351883</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-46.6580607596402</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>169.0432071224899</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-46.66539815794332</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>169.0452505288391</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-46.66172945879176</v>
       </c>
     </row>
@@ -29061,27 +29081,28 @@
       <c r="P17" t="n">
         <v>319.3059859050604</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (169.04628692350806 -46.657821564884216, 169.04260795266967 -46.665260374395714)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>169.0462869235081</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-46.65782156488422</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>169.0426079526697</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-46.66526037439571</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>169.0444474380889</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-46.66154096963997</v>
       </c>
     </row>
@@ -29132,27 +29153,28 @@
       <c r="P18" t="n">
         <v>332.1512897408089</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (169.04456179931339 -46.65753333360196, 169.04312744150587 -46.66532861093512)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>169.0445617993134</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-46.65753333360196</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>169.0431274415059</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-46.66532861093512</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>169.0438446204096</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-46.66143097226854</v>
       </c>
     </row>
@@ -29209,27 +29231,28 @@
       <c r="P19" t="n">
         <v>328.4658180612268</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (169.04295548464825 -46.6575567079472, 169.04336208481143 -46.66540922544955)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>169.0429554846482</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-46.6575567079472</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>169.0433620848114</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-46.66540922544955</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>169.0431587847298</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-46.66148296669837</v>
       </c>
     </row>
@@ -29280,27 +29303,28 @@
       <c r="P20" t="n">
         <v>330.0559701442146</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (169.04205940298635 -46.65759986860518, 169.04246591361527 -46.6654523825835)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>169.0420594029864</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-46.65759986860518</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>169.0424659136153</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-46.6654523825835</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>169.0422626583008</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-46.66152612559434</v>
       </c>
     </row>
@@ -29357,27 +29381,28 @@
       <c r="P21" t="n">
         <v>325.3713823808111</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (169.04116332132455 -46.657643029229156, 169.0415697424189 -46.66549553968215)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>169.0411633213245</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-46.65764302922916</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>169.0415697424189</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-46.66549553968215</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>169.0413665318717</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-46.66156928445565</v>
       </c>
     </row>
@@ -29428,27 +29453,28 @@
       <c r="P22" t="n">
         <v>318.2218117198984</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (169.04026723966288 -46.657686189819124, 169.04067357122233 -46.665538696745486)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>169.0402672396629</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-46.65768618981912</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>169.0406735712223</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-46.66553869674549</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>169.0404704054426</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-46.66161244328231</v>
       </c>
     </row>
@@ -29499,27 +29525,28 @@
       <c r="P23" t="n">
         <v>310.9393738279282</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (169.03937115800125 -46.65772935037506, 169.03977740002557 -46.665581853773496)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>169.0393711580012</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-46.65772935037506</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>169.0397774000256</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-46.6655818537735</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>169.0395742790134</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-46.66165560207428</v>
       </c>
     </row>
@@ -29576,27 +29603,28 @@
       <c r="P24" t="n">
         <v>312.8857910004613</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (169.0383109059273 -46.65777916471883, 169.03914281555052 -46.66561578102157)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>169.0383109059273</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-46.65777916471883</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>169.0391428155505</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-46.66561578102157</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>169.0387268607389</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-46.6616974728702</v>
       </c>
     </row>
@@ -29647,27 +29675,28 @@
       <c r="P25" t="n">
         <v>310.5468302268582</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (169.03720626579107 -46.65788328992037, 169.03859979346842 -46.665682096563124)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>169.0372062657911</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-46.65788328992037</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>169.0385997934684</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-46.66568209656312</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>169.0379030296297</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-46.66178269324175</v>
       </c>
     </row>
@@ -29724,27 +29753,28 @@
       <c r="P26" t="n">
         <v>313.5896343323402</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (169.03626817472286 -46.657991721668544, 169.03779801625421 -46.66577842778081)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>169.0362681747229</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-46.65799172166854</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>169.0377980162542</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-46.66577842778081</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>169.0370330954885</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-46.66188507472468</v>
       </c>
     </row>
@@ -29795,27 +29825,28 @@
       <c r="P27" t="n">
         <v>318.9932449344516</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (169.03538266093898 -46.658095317886236, 169.0369124154624 -46.665882023801295)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>169.035382660939</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-46.65809531788624</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>169.0369124154624</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-46.6658820238013</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>169.0361475382007</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-46.66198867084377</v>
       </c>
     </row>
@@ -29872,27 +29903,28 @@
       <c r="P28" t="n">
         <v>332.2051852626229</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (169.0344971471554 -46.65819891390579, 169.0360268146701 -46.66598561962241)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>169.0344971471554</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-46.65819891390579</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>169.0360268146701</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-46.66598561962241</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>169.0352619809128</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-46.66209226676411</v>
       </c>
     </row>
@@ -29949,27 +29981,28 @@
       <c r="P29" t="n">
         <v>341.6211628416916</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (169.03337649894067 -46.658329599121636, 169.03551618382727 -46.66604801871999)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>169.0333764989407</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-46.65832959912164</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>169.0355161838273</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-46.66604801871999</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>169.034446341384</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-46.66218880892082</v>
       </c>
     </row>
@@ -30026,27 +30059,28 @@
       <c r="P30" t="n">
         <v>343.9517979231039</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (169.0321949333171 -46.6585494386822, 169.03516369561328 -46.666136967623835)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>169.0321949333171</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-46.6585494386822</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>169.0351636956133</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-46.66613696762384</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>169.0336793144652</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-46.66234320315301</v>
       </c>
     </row>
@@ -30103,27 +30137,28 @@
       <c r="P31" t="n">
         <v>344.3798554230543</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (169.03125595512853 -46.65875877069604, 169.03444693433755 -46.66630350334535)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>169.0312559551285</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-46.65875877069604</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>169.0344469343376</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-46.66630350334535</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>169.032851444733</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-46.66253113702069</v>
       </c>
     </row>
@@ -30180,27 +30215,28 @@
       <c r="P32" t="n">
         <v>348.5140206402935</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (169.03040260225467 -46.658951321873396, 169.0335935045704 -46.66649605920431)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>169.0304026022547</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-46.6589513218734</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>169.0335935045704</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-46.66649605920431</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>169.0319980534125</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-46.66272369053885</v>
       </c>
     </row>
@@ -30257,27 +30293,28 @@
       <c r="P33" t="n">
         <v>356.9552909652298</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (169.02954924938132 -46.65914387236531, 169.03274007480218 -46.66668861437682)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>169.0295492493813</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-46.65914387236531</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>169.0327400748022</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-46.66668861437682</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>169.0311446620917</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-46.66291624337106</v>
       </c>
     </row>

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH261"/>
+  <dimension ref="A1:AH263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25086,6 +25086,206 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:46+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>300.61</v>
+      </c>
+      <c r="C262" t="n">
+        <v>306.1579069767442</v>
+      </c>
+      <c r="D262" t="n">
+        <v>296.8855555555555</v>
+      </c>
+      <c r="E262" t="n">
+        <v>309.238275862069</v>
+      </c>
+      <c r="F262" t="n">
+        <v>316.9727272727272</v>
+      </c>
+      <c r="G262" t="n">
+        <v>317.2233333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>304.3461728395061</v>
+      </c>
+      <c r="I262" t="n">
+        <v>296.3478431372549</v>
+      </c>
+      <c r="J262" t="n">
+        <v>307.7947967479675</v>
+      </c>
+      <c r="K262" t="n">
+        <v>327.8922222222222</v>
+      </c>
+      <c r="L262" t="n">
+        <v>340.2075757575757</v>
+      </c>
+      <c r="M262" t="n">
+        <v>336.181935483871</v>
+      </c>
+      <c r="N262" t="n">
+        <v>333.2737037037037</v>
+      </c>
+      <c r="O262" t="n">
+        <v>330.902131147541</v>
+      </c>
+      <c r="P262" t="n">
+        <v>330.6530275229358</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>334.5333333333333</v>
+      </c>
+      <c r="R262" t="n">
+        <v>349.1680722891566</v>
+      </c>
+      <c r="S262" t="n">
+        <v>350.1985714285714</v>
+      </c>
+      <c r="T262" t="n">
+        <v>352.6946153846154</v>
+      </c>
+      <c r="U262" t="n">
+        <v>331.4333333333333</v>
+      </c>
+      <c r="V262" t="n">
+        <v>320.8145454545455</v>
+      </c>
+      <c r="W262" t="n">
+        <v>313.7784615384616</v>
+      </c>
+      <c r="X262" t="n">
+        <v>324.72</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>327.8544444444444</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>335</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>335.749756097561</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>339.93</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>342.1655555555556</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>355.6346153846154</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>362.8533333333333</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>364.6333333333333</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>378.5233333333333</v>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>304.4489430894309</v>
+      </c>
+      <c r="K263" t="n">
+        <v>313.8205555555556</v>
+      </c>
+      <c r="L263" t="n">
+        <v>327.6721212121212</v>
+      </c>
+      <c r="M263" t="n">
+        <v>325.6893548387097</v>
+      </c>
+      <c r="N263" t="n">
+        <v>323.3859259259259</v>
+      </c>
+      <c r="O263" t="n">
+        <v>328.434262295082</v>
+      </c>
+      <c r="P263" t="n">
+        <v>329.2123853211009</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>332.4908333333333</v>
+      </c>
+      <c r="R263" t="n">
+        <v>331.7555421686747</v>
+      </c>
+      <c r="S263" t="n">
+        <v>342.0014285714286</v>
+      </c>
+      <c r="T263" t="n">
+        <v>350.0738461538461</v>
+      </c>
+      <c r="U263" t="n">
+        <v>352.9433333333333</v>
+      </c>
+      <c r="V263" t="n">
+        <v>324.8772727272727</v>
+      </c>
+      <c r="W263" t="n">
+        <v>313.3153846153846</v>
+      </c>
+      <c r="X263" t="n">
+        <v>311.76</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>312.5111111111111</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>324.11</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>334.6707317073171</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>349.255</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>345.7988888888889</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>351.1038461538461</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>364.6033333333333</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>369.2333333333333</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>370.4333333333333</v>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25097,7 +25297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27775,6 +27975,26 @@
       </c>
       <c r="B267" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -27948,28 +28168,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.488701695445618</v>
+        <v>-0.4859147863611225</v>
       </c>
       <c r="J2" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04932438852279808</v>
+        <v>0.04923867121186642</v>
       </c>
       <c r="M2" t="n">
-        <v>13.31567759468987</v>
+        <v>13.26409623505427</v>
       </c>
       <c r="N2" t="n">
-        <v>260.7230013092764</v>
+        <v>259.4511830143311</v>
       </c>
       <c r="O2" t="n">
-        <v>16.14691925133945</v>
+        <v>16.10748841422309</v>
       </c>
       <c r="P2" t="n">
-        <v>310.1382963266874</v>
+        <v>310.1111122505496</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28020,28 +28240,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.407529173825752</v>
+        <v>-1.397102183634934</v>
       </c>
       <c r="J3" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L3" t="n">
-        <v>0.173158603748863</v>
+        <v>0.1722704003870167</v>
       </c>
       <c r="M3" t="n">
-        <v>18.85861149954905</v>
+        <v>18.81467632760055</v>
       </c>
       <c r="N3" t="n">
-        <v>529.1272916845154</v>
+        <v>527.0735168444065</v>
       </c>
       <c r="O3" t="n">
-        <v>23.00276704408657</v>
+        <v>22.95808173267981</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1086988842567</v>
+        <v>331.0060835508089</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28092,28 +28312,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.7933234430028309</v>
+        <v>-0.7912437383569647</v>
       </c>
       <c r="J4" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K4" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06512345749099646</v>
+        <v>0.06539948659426897</v>
       </c>
       <c r="M4" t="n">
-        <v>18.80826250216478</v>
+        <v>18.7242955803815</v>
       </c>
       <c r="N4" t="n">
-        <v>493.4560921669019</v>
+        <v>490.987932693973</v>
       </c>
       <c r="O4" t="n">
-        <v>22.21387161588232</v>
+        <v>22.15824750953859</v>
       </c>
       <c r="P4" t="n">
-        <v>315.034700772492</v>
+        <v>315.0138419327537</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28164,28 +28384,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.6656601955969643</v>
+        <v>-0.6494932610891226</v>
       </c>
       <c r="J5" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K5" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06190045743294614</v>
+        <v>0.0594672798635415</v>
       </c>
       <c r="M5" t="n">
-        <v>15.85619821285079</v>
+        <v>15.86593119556931</v>
       </c>
       <c r="N5" t="n">
-        <v>373.7779684675695</v>
+        <v>373.3701534960107</v>
       </c>
       <c r="O5" t="n">
-        <v>19.33333826496525</v>
+        <v>19.32278845032494</v>
       </c>
       <c r="P5" t="n">
-        <v>309.1470010867188</v>
+        <v>308.9907709290648</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28242,28 +28462,28 @@
         <v>0.0752</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6319842381564904</v>
+        <v>-0.609554545693998</v>
       </c>
       <c r="J6" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K6" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07210735112034272</v>
+        <v>0.06753652330559945</v>
       </c>
       <c r="M6" t="n">
-        <v>13.67680522360348</v>
+        <v>13.71117147739842</v>
       </c>
       <c r="N6" t="n">
-        <v>282.4653918523034</v>
+        <v>283.5742546941661</v>
       </c>
       <c r="O6" t="n">
-        <v>16.80670675213628</v>
+        <v>16.83966314075689</v>
       </c>
       <c r="P6" t="n">
-        <v>310.6215358534009</v>
+        <v>310.403611339161</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28320,28 +28540,28 @@
         <v>0.0877</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.7295778165688132</v>
+        <v>-0.701937533113896</v>
       </c>
       <c r="J7" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08007835623687354</v>
+        <v>0.07449407681796893</v>
       </c>
       <c r="M7" t="n">
-        <v>15.17696083807629</v>
+        <v>15.23694063996187</v>
       </c>
       <c r="N7" t="n">
-        <v>348.8498636694202</v>
+        <v>351.2460753804768</v>
       </c>
       <c r="O7" t="n">
-        <v>18.67752295325641</v>
+        <v>18.74156011063318</v>
       </c>
       <c r="P7" t="n">
-        <v>306.725718085812</v>
+        <v>306.4669382488814</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28392,28 +28612,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.7660183134814903</v>
+        <v>-0.729135233900707</v>
       </c>
       <c r="J8" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04069167679953645</v>
+        <v>0.03710366094281936</v>
       </c>
       <c r="M8" t="n">
-        <v>23.4636465280459</v>
+        <v>23.54674684473886</v>
       </c>
       <c r="N8" t="n">
-        <v>741.5566041854269</v>
+        <v>744.0034877379107</v>
       </c>
       <c r="O8" t="n">
-        <v>27.23153694130074</v>
+        <v>27.2764273272346</v>
       </c>
       <c r="P8" t="n">
-        <v>289.1095767481175</v>
+        <v>288.7422878520393</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28464,28 +28684,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4801978876351153</v>
+        <v>-0.4459084239851596</v>
       </c>
       <c r="J9" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K9" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01616729612144685</v>
+        <v>0.01401843365730504</v>
       </c>
       <c r="M9" t="n">
-        <v>23.10710134690848</v>
+        <v>23.15523190144593</v>
       </c>
       <c r="N9" t="n">
-        <v>729.6616621225542</v>
+        <v>731.2759284153896</v>
       </c>
       <c r="O9" t="n">
-        <v>27.01225022323305</v>
+        <v>27.04211397830039</v>
       </c>
       <c r="P9" t="n">
-        <v>276.3325563938308</v>
+        <v>275.9796523113667</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28536,28 +28756,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.8934547633503674</v>
+        <v>-0.8271949369028666</v>
       </c>
       <c r="J10" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K10" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06151600095521625</v>
+        <v>0.05342709747480723</v>
       </c>
       <c r="M10" t="n">
-        <v>20.26494875371185</v>
+        <v>20.325104762482</v>
       </c>
       <c r="N10" t="n">
-        <v>648.2662878959964</v>
+        <v>652.4093276739812</v>
       </c>
       <c r="O10" t="n">
-        <v>25.46107397373482</v>
+        <v>25.54230466645446</v>
       </c>
       <c r="P10" t="n">
-        <v>296.2788195017073</v>
+        <v>295.6088165570663</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28608,28 +28828,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.9809427241468468</v>
+        <v>-0.9103026340730026</v>
       </c>
       <c r="J11" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K11" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1003631375274754</v>
+        <v>0.08750217678124816</v>
       </c>
       <c r="M11" t="n">
-        <v>15.97958922660836</v>
+        <v>16.1154649086584</v>
       </c>
       <c r="N11" t="n">
-        <v>493.2804970578337</v>
+        <v>500.6167105741033</v>
       </c>
       <c r="O11" t="n">
-        <v>22.2099188890422</v>
+        <v>22.37446559303939</v>
       </c>
       <c r="P11" t="n">
-        <v>311.8470610451478</v>
+        <v>311.1895193342987</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28686,28 +28906,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5550123647461456</v>
+        <v>-0.4886497747178606</v>
       </c>
       <c r="J12" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K12" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0371147318216124</v>
+        <v>0.02887140669025057</v>
       </c>
       <c r="M12" t="n">
-        <v>16.95808498681225</v>
+        <v>17.10791499491105</v>
       </c>
       <c r="N12" t="n">
-        <v>465.5459127159774</v>
+        <v>473.181851800835</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5765129878759</v>
+        <v>21.75274354652385</v>
       </c>
       <c r="P12" t="n">
-        <v>313.3142500918548</v>
+        <v>312.6972109906816</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28764,28 +28984,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6725209610258176</v>
+        <v>-0.5987396578262744</v>
       </c>
       <c r="J13" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K13" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0376735585101392</v>
+        <v>0.03002936183891403</v>
       </c>
       <c r="M13" t="n">
-        <v>21.35171072508086</v>
+        <v>21.51431755752809</v>
       </c>
       <c r="N13" t="n">
-        <v>676.3629312147806</v>
+        <v>685.3238187934121</v>
       </c>
       <c r="O13" t="n">
-        <v>26.00697850990731</v>
+        <v>26.17869016573236</v>
       </c>
       <c r="P13" t="n">
-        <v>308.1175819830443</v>
+        <v>307.4338010290882</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28842,28 +29062,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9263839424951597</v>
+        <v>-0.8524994912721848</v>
       </c>
       <c r="J14" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K14" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07400927434623594</v>
+        <v>0.06320271279135115</v>
       </c>
       <c r="M14" t="n">
-        <v>20.31673752935781</v>
+        <v>20.49580325279246</v>
       </c>
       <c r="N14" t="n">
-        <v>621.1360363659063</v>
+        <v>630.1024971480797</v>
       </c>
       <c r="O14" t="n">
-        <v>24.9226009149508</v>
+        <v>25.10184250504492</v>
       </c>
       <c r="P14" t="n">
-        <v>312.8649824068658</v>
+        <v>312.1738405076961</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28914,28 +29134,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-1.046317325093649</v>
+        <v>-0.9719232997286725</v>
       </c>
       <c r="J15" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K15" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1080854085884372</v>
+        <v>0.09439283709561797</v>
       </c>
       <c r="M15" t="n">
-        <v>17.89800610918297</v>
+        <v>18.05432487595873</v>
       </c>
       <c r="N15" t="n">
-        <v>506.8603437761875</v>
+        <v>514.8483292949716</v>
       </c>
       <c r="O15" t="n">
-        <v>22.51355910948305</v>
+        <v>22.69026948484684</v>
       </c>
       <c r="P15" t="n">
-        <v>320.5449486436161</v>
+        <v>319.8361975082411</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28986,28 +29206,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.9444205561099493</v>
+        <v>-0.8851969732307063</v>
       </c>
       <c r="J16" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K16" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09385718568906709</v>
+        <v>0.08374674238684665</v>
       </c>
       <c r="M16" t="n">
-        <v>16.27334879333453</v>
+        <v>16.35692005687236</v>
       </c>
       <c r="N16" t="n">
-        <v>488.2657047534845</v>
+        <v>491.8420140609508</v>
       </c>
       <c r="O16" t="n">
-        <v>22.0967351605047</v>
+        <v>22.17751144878412</v>
       </c>
       <c r="P16" t="n">
-        <v>325.0621547040234</v>
+        <v>324.4970044825772</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29058,28 +29278,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.3272848243956074</v>
+        <v>0.3391298280278884</v>
       </c>
       <c r="J17" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K17" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01612117051634265</v>
+        <v>0.01767090138044303</v>
       </c>
       <c r="M17" t="n">
-        <v>14.30978079570375</v>
+        <v>14.20928102135272</v>
       </c>
       <c r="N17" t="n">
-        <v>379.8048020158463</v>
+        <v>376.0619435836605</v>
       </c>
       <c r="O17" t="n">
-        <v>19.48858132383798</v>
+        <v>19.39231661209306</v>
       </c>
       <c r="P17" t="n">
-        <v>319.3059859050604</v>
+        <v>319.1961703412035</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29130,28 +29350,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.07396595791725721</v>
+        <v>0.08531832242477569</v>
       </c>
       <c r="J18" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001091814853257711</v>
+        <v>0.001475527531511811</v>
       </c>
       <c r="M18" t="n">
-        <v>13.41570177774425</v>
+        <v>13.36592384691948</v>
       </c>
       <c r="N18" t="n">
-        <v>287.3666993664776</v>
+        <v>285.7477875112067</v>
       </c>
       <c r="O18" t="n">
-        <v>16.95189368083925</v>
+        <v>16.9040760620392</v>
       </c>
       <c r="P18" t="n">
-        <v>332.1512897408089</v>
+        <v>332.0443430556728</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29208,28 +29428,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1038662333471685</v>
+        <v>-0.0697328264192518</v>
       </c>
       <c r="J19" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K19" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002416757733070263</v>
+        <v>0.001095092871027603</v>
       </c>
       <c r="M19" t="n">
-        <v>12.90612423538229</v>
+        <v>12.95112222727644</v>
       </c>
       <c r="N19" t="n">
-        <v>256.811313023304</v>
+        <v>258.2605913824654</v>
       </c>
       <c r="O19" t="n">
-        <v>16.02533347619649</v>
+        <v>16.07048821232465</v>
       </c>
       <c r="P19" t="n">
-        <v>328.4658180612268</v>
+        <v>328.1432651519813</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29280,28 +29500,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.3813346511416748</v>
+        <v>-0.3283877549900328</v>
       </c>
       <c r="J20" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K20" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02590158162777256</v>
+        <v>0.01916554837935813</v>
       </c>
       <c r="M20" t="n">
-        <v>14.05598871966061</v>
+        <v>14.18530231973334</v>
       </c>
       <c r="N20" t="n">
-        <v>310.5428089823947</v>
+        <v>316.3258145288514</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6222248590351</v>
+        <v>17.78555072323743</v>
       </c>
       <c r="P20" t="n">
-        <v>330.0559701442146</v>
+        <v>329.5458819734352</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29358,28 +29578,28 @@
         <v>0.1008</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.475041684999755</v>
+        <v>-0.4247920344109726</v>
       </c>
       <c r="J21" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K21" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" t="n">
-        <v>0.033861933410269</v>
+        <v>0.02713838599359553</v>
       </c>
       <c r="M21" t="n">
-        <v>14.65143599761607</v>
+        <v>14.8049375166651</v>
       </c>
       <c r="N21" t="n">
-        <v>364.4228600711201</v>
+        <v>369.6774652156417</v>
       </c>
       <c r="O21" t="n">
-        <v>19.08986275673872</v>
+        <v>19.2269983412815</v>
       </c>
       <c r="P21" t="n">
-        <v>325.3713823808111</v>
+        <v>324.8873170175204</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29430,28 +29650,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.5277810419997422</v>
+        <v>-0.4975376095102502</v>
       </c>
       <c r="J22" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K22" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04217106944554572</v>
+        <v>0.03800712888904678</v>
       </c>
       <c r="M22" t="n">
-        <v>14.64594849810334</v>
+        <v>14.65128767486979</v>
       </c>
       <c r="N22" t="n">
-        <v>357.9756873004382</v>
+        <v>357.6875954184529</v>
       </c>
       <c r="O22" t="n">
-        <v>18.92024543446618</v>
+        <v>18.91263057901922</v>
       </c>
       <c r="P22" t="n">
-        <v>318.2218117198984</v>
+        <v>317.9283324608198</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29502,28 +29722,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.4436398584019541</v>
+        <v>-0.4192978632257858</v>
       </c>
       <c r="J23" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03403192907880426</v>
+        <v>0.03090113894769309</v>
       </c>
       <c r="M23" t="n">
-        <v>14.45873359659844</v>
+        <v>14.44139187020775</v>
       </c>
       <c r="N23" t="n">
-        <v>317.1603553427445</v>
+        <v>315.9720821827473</v>
       </c>
       <c r="O23" t="n">
-        <v>17.80899647208524</v>
+        <v>17.77560356732641</v>
       </c>
       <c r="P23" t="n">
-        <v>310.9393738279282</v>
+        <v>310.7040191719725</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29580,28 +29800,28 @@
         <v>0.1434</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4709243202318003</v>
+        <v>-0.439200378759644</v>
       </c>
       <c r="J24" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K24" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04899625395386797</v>
+        <v>0.04312942490539595</v>
       </c>
       <c r="M24" t="n">
-        <v>12.05762229368855</v>
+        <v>12.08649348120952</v>
       </c>
       <c r="N24" t="n">
-        <v>242.749333518909</v>
+        <v>243.681933758375</v>
       </c>
       <c r="O24" t="n">
-        <v>15.58041506247215</v>
+        <v>15.61031497947351</v>
       </c>
       <c r="P24" t="n">
-        <v>312.8857910004613</v>
+        <v>312.5767341589452</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29652,28 +29872,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.2200736613186117</v>
+        <v>-0.1926044622510471</v>
       </c>
       <c r="J25" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K25" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0153838433553386</v>
+        <v>0.0118782727226554</v>
       </c>
       <c r="M25" t="n">
-        <v>10.49921642842249</v>
+        <v>10.55346101557701</v>
       </c>
       <c r="N25" t="n">
-        <v>175.5688093510401</v>
+        <v>176.6125663494041</v>
       </c>
       <c r="O25" t="n">
-        <v>13.25023808657943</v>
+        <v>13.28956607077162</v>
       </c>
       <c r="P25" t="n">
-        <v>310.5468302268582</v>
+        <v>310.2847647091824</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29730,28 +29950,28 @@
         <v>0.2</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1436756663574699</v>
+        <v>-0.1085002189737208</v>
       </c>
       <c r="J26" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K26" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006478733592509056</v>
+        <v>0.003700171714154932</v>
       </c>
       <c r="M26" t="n">
-        <v>10.45355341159912</v>
+        <v>10.51870301131787</v>
       </c>
       <c r="N26" t="n">
-        <v>178.0604273959656</v>
+        <v>180.1793373363164</v>
       </c>
       <c r="O26" t="n">
-        <v>13.34392848436942</v>
+        <v>13.42308970901693</v>
       </c>
       <c r="P26" t="n">
-        <v>313.5896343323402</v>
+        <v>313.2531851771197</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -29802,28 +30022,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.08308782762694397</v>
+        <v>0.1072688253779563</v>
       </c>
       <c r="J27" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K27" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001664499905697836</v>
+        <v>0.002802401253831577</v>
       </c>
       <c r="M27" t="n">
-        <v>11.685978360138</v>
+        <v>11.70229284873964</v>
       </c>
       <c r="N27" t="n">
-        <v>233.1386310987812</v>
+        <v>232.775292135169</v>
       </c>
       <c r="O27" t="n">
-        <v>15.26887785984226</v>
+        <v>15.25697519612485</v>
       </c>
       <c r="P27" t="n">
-        <v>318.9932449344516</v>
+        <v>318.7599555164336</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -29880,28 +30100,28 @@
         <v>0.1158</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.09143597581372948</v>
+        <v>-0.06594704028048964</v>
       </c>
       <c r="J28" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001698903593298384</v>
+        <v>0.0008943827607748034</v>
       </c>
       <c r="M28" t="n">
-        <v>12.91322316303688</v>
+        <v>12.91667165533361</v>
       </c>
       <c r="N28" t="n">
-        <v>276.1170202336814</v>
+        <v>275.7221709323945</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6167692477714</v>
+        <v>16.60488394817605</v>
       </c>
       <c r="P28" t="n">
-        <v>332.2051852626229</v>
+        <v>331.9589056013156</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -29958,28 +30178,28 @@
         <v>0.1241</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1493345641080504</v>
+        <v>-0.1386625181950939</v>
       </c>
       <c r="J29" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K29" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005414987117243975</v>
+        <v>0.004752077244733255</v>
       </c>
       <c r="M29" t="n">
-        <v>11.882400382661</v>
+        <v>11.82294036143586</v>
       </c>
       <c r="N29" t="n">
-        <v>227.256029923214</v>
+        <v>225.5673573026335</v>
       </c>
       <c r="O29" t="n">
-        <v>15.07501343028304</v>
+        <v>15.0189000030839</v>
       </c>
       <c r="P29" t="n">
-        <v>341.6211628416916</v>
+        <v>341.5168392824197</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30036,28 +30256,28 @@
         <v>0.0798</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.3028089296216482</v>
+        <v>-0.2726611828454882</v>
       </c>
       <c r="J30" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K30" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02142874306824505</v>
+        <v>0.01757773557655884</v>
       </c>
       <c r="M30" t="n">
-        <v>12.20285463318348</v>
+        <v>12.23460154728692</v>
       </c>
       <c r="N30" t="n">
-        <v>232.4023513079632</v>
+        <v>232.9506137991392</v>
       </c>
       <c r="O30" t="n">
-        <v>15.24474831894457</v>
+        <v>15.26271973794773</v>
       </c>
       <c r="P30" t="n">
-        <v>343.9517979231039</v>
+        <v>343.6592369280031</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30114,28 +30334,28 @@
         <v>0.0711</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.457536210295273</v>
+        <v>-0.4038080830315994</v>
       </c>
       <c r="J31" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K31" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05418220101244475</v>
+        <v>0.04174993782263314</v>
       </c>
       <c r="M31" t="n">
-        <v>11.36373689985958</v>
+        <v>11.56085441883108</v>
       </c>
       <c r="N31" t="n">
-        <v>200.6922701109279</v>
+        <v>207.4581315449916</v>
       </c>
       <c r="O31" t="n">
-        <v>14.16658992527588</v>
+        <v>14.4034069422825</v>
       </c>
       <c r="P31" t="n">
-        <v>344.3798554230543</v>
+        <v>343.847439622338</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30192,28 +30412,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.4370377517369949</v>
+        <v>-0.3861081667122997</v>
       </c>
       <c r="J32" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K32" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03589844218009375</v>
+        <v>0.02798887267000083</v>
       </c>
       <c r="M32" t="n">
-        <v>12.35778911577418</v>
+        <v>12.54121720635338</v>
       </c>
       <c r="N32" t="n">
-        <v>279.5117492216564</v>
+        <v>284.7441343661037</v>
       </c>
       <c r="O32" t="n">
-        <v>16.71860488263469</v>
+        <v>16.87436322846298</v>
       </c>
       <c r="P32" t="n">
-        <v>348.5140206402935</v>
+        <v>348.007205737985</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30270,28 +30490,28 @@
         <v>0.0796</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.5179591145759287</v>
+        <v>-0.4615305331760965</v>
       </c>
       <c r="J33" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K33" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04638838380049226</v>
+        <v>0.03680092871153384</v>
       </c>
       <c r="M33" t="n">
-        <v>13.2335722612869</v>
+        <v>13.39787844084555</v>
       </c>
       <c r="N33" t="n">
-        <v>290.4376846431088</v>
+        <v>296.5315333726098</v>
       </c>
       <c r="O33" t="n">
-        <v>17.04223238437702</v>
+        <v>17.22009098038131</v>
       </c>
       <c r="P33" t="n">
-        <v>356.9552909652298</v>
+        <v>356.3809643024543</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30329,7 +30549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH261"/>
+  <dimension ref="A1:AH263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68025,6 +68245,318 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:46+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>-46.6654839231588,169.05624390758442</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>-46.66505854605853,169.05558636877961</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>-46.664547368327305,169.05507687091796</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>-46.66416137691047,169.05435135908695</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>-46.663744125514455,169.05366503331143</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>-46.663307745805454,169.05299292557712</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>-46.66286203613513,169.05232626917103</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>-46.662460336429746,169.05164139340454</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>-46.66220031903172,169.05080782545411</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>-46.66200332796084,169.04990810873676</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>-46.661752390065594,169.04906968593994</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>-46.66148382154928,169.04827150642114</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>-46.66125922120658,169.04743493197788</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>-46.66103871587792,169.04659658007</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>-46.66083602433106,169.04574830652615</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>-46.66066826403238,169.0448791828488</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>-46.66064718303912,169.04398889935055</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>-46.660702704369974,169.04311837773378</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>-46.660768287399335,169.0422234210332</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>-46.66062044742189,169.04131741785417</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>-46.66056821388522,169.04041636617356</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>-46.66054816541766,169.0395169817109</t>
+        </is>
+      </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>-46.66069035600697,169.03861992885425</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>-46.66080837021815,169.037728894079</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>-46.66097590802394,169.03685442905604</t>
+        </is>
+      </c>
+      <c r="AA262" t="inlineStr">
+        <is>
+          <t>-46.66108618468768,169.03597019433144</t>
+        </is>
+      </c>
+      <c r="AB262" t="inlineStr">
+        <is>
+          <t>-46.66122702003174,169.03509196246378</t>
+        </is>
+      </c>
+      <c r="AC262" t="inlineStr">
+        <is>
+          <t>-46.66135083623524,169.03421397482717</t>
+        </is>
+      </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>-46.661636252220276,169.03340261122347</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>-46.66189044663809,169.0325803663284</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>-46.66209836576769,169.03173348015474</t>
+        </is>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>-46.66241080210824,169.03093079553827</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>-46.662175940190444,169.05083341025522</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>-46.661900798418436,169.0500157114468</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>-46.66165521201794,169.04915254085248</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>-46.661396969300256,169.04832493097874</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>-46.66117623013956,169.04748115321854</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>-46.66101800238675,169.04660811650362</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>-46.66082393267045,169.04575504113023</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>-46.66065088352322,169.04488777831315</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>-46.66049189980988,169.04401747091455</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>-46.6606290656395,169.0431145647936</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>-46.6607447438213,169.04222220223724</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>-46.660813681622884,169.04132741892658</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>-46.660604711220714,169.04041825471796</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>-46.66054400538701,169.03951676649888</t>
+        </is>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>-46.66057416657231,169.03860759490206</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>-46.66067147877232,169.03770443444688</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>-46.660878899732026,169.03683537056372</t>
+        </is>
+      </c>
+      <c r="AA263" t="inlineStr">
+        <is>
+          <t>-46.661076572716325,169.03596830604383</t>
+        </is>
+      </c>
+      <c r="AB263" t="inlineStr">
+        <is>
+          <t>-46.66131008736546,169.0351082802932</t>
+        </is>
+      </c>
+      <c r="AC263" t="inlineStr">
+        <is>
+          <t>-46.66138291764471,169.03422286812827</t>
+        </is>
+      </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>-46.661596926414255,169.0333872246609</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>-46.661905550322956,169.03258675415694</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>-46.66213806694832,169.0317502706478</t>
+        </is>
+      </c>
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>-46.662340979701376,169.03090126678478</t>
+        </is>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46783,7 +46783,7 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>-46.660475108692175,169.04220824388577</t>
+          <t>-46.66047510869218,169.04220824388577</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH263"/>
+  <dimension ref="A1:AH265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25286,6 +25286,208 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>288.02</v>
+      </c>
+      <c r="C264" t="n">
+        <v>271.9218604651163</v>
+      </c>
+      <c r="D264" t="n">
+        <v>278.9511111111111</v>
+      </c>
+      <c r="E264" t="n">
+        <v>280.6534482758621</v>
+      </c>
+      <c r="F264" t="n">
+        <v>283.8372727272728</v>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="n">
+        <v>248.5479012345679</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>259.0770967741935</v>
+      </c>
+      <c r="N264" t="n">
+        <v>289.8607407407408</v>
+      </c>
+      <c r="O264" t="n">
+        <v>335.8327868852459</v>
+      </c>
+      <c r="P264" t="n">
+        <v>352.844495412844</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>364.5641666666667</v>
+      </c>
+      <c r="R264" t="n">
+        <v>359.9478313253012</v>
+      </c>
+      <c r="S264" t="n">
+        <v>328.8757142857143</v>
+      </c>
+      <c r="T264" t="n">
+        <v>292.4423076923077</v>
+      </c>
+      <c r="U264" t="n">
+        <v>304.3766666666667</v>
+      </c>
+      <c r="V264" t="n">
+        <v>331.5354545454546</v>
+      </c>
+      <c r="W264" t="n">
+        <v>339.2592307692308</v>
+      </c>
+      <c r="X264" t="n">
+        <v>336.24</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>323.1988888888889</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>324.21</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>339.899756097561</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>360.825</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>367.9211111111111</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>359.4023076923077</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>363.8666666666667</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>369.6866666666667</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>378.2166666666667</v>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>283.84</v>
+      </c>
+      <c r="C265" t="n">
+        <v>281.2337209302326</v>
+      </c>
+      <c r="D265" t="n">
+        <v>275.1066666666667</v>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>319.94</v>
+      </c>
+      <c r="H265" t="n">
+        <v>241.7585185185185</v>
+      </c>
+      <c r="I265" t="n">
+        <v>336.4935294117647</v>
+      </c>
+      <c r="J265" t="n">
+        <v>336.1943902439024</v>
+      </c>
+      <c r="K265" t="n">
+        <v>330.0366666666667</v>
+      </c>
+      <c r="L265" t="n">
+        <v>313.4227272727272</v>
+      </c>
+      <c r="M265" t="n">
+        <v>254.3558064516129</v>
+      </c>
+      <c r="N265" t="n">
+        <v>286.2311111111111</v>
+      </c>
+      <c r="O265" t="n">
+        <v>315.6763934426229</v>
+      </c>
+      <c r="P265" t="n">
+        <v>353.1290825688073</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>367.87</v>
+      </c>
+      <c r="R265" t="n">
+        <v>360.3342168674699</v>
+      </c>
+      <c r="S265" t="n">
+        <v>339.2957142857143</v>
+      </c>
+      <c r="T265" t="n">
+        <v>309.2338461538461</v>
+      </c>
+      <c r="U265" t="n">
+        <v>291.67</v>
+      </c>
+      <c r="V265" t="n">
+        <v>339.2736363636364</v>
+      </c>
+      <c r="W265" t="n">
+        <v>366.3253846153846</v>
+      </c>
+      <c r="X265" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>330.6433333333333</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>321.17</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>333.9792682926829</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>370.94</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>391.7666666666667</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>379.6338461538462</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>357.81</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>364.55</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>385.32</v>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25297,7 +25499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27995,6 +28197,26 @@
       </c>
       <c r="B269" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>
@@ -28168,28 +28390,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4859147863611225</v>
+        <v>-0.5073036888837892</v>
       </c>
       <c r="J2" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K2" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04923867121186642</v>
+        <v>0.05418167355525216</v>
       </c>
       <c r="M2" t="n">
-        <v>13.26409623505427</v>
+        <v>13.24028713120041</v>
       </c>
       <c r="N2" t="n">
-        <v>259.4511830143311</v>
+        <v>258.2035927252405</v>
       </c>
       <c r="O2" t="n">
-        <v>16.10748841422309</v>
+        <v>16.06871471914417</v>
       </c>
       <c r="P2" t="n">
-        <v>310.1111122505496</v>
+        <v>310.3226465465667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28240,28 +28462,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-1.397102183634934</v>
+        <v>-1.431001309896385</v>
       </c>
       <c r="J3" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K3" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1722704003870167</v>
+        <v>0.1812058838387386</v>
       </c>
       <c r="M3" t="n">
-        <v>18.81467632760055</v>
+        <v>18.81928336062817</v>
       </c>
       <c r="N3" t="n">
-        <v>527.0735168444065</v>
+        <v>525.2465417754855</v>
       </c>
       <c r="O3" t="n">
-        <v>22.95808173267981</v>
+        <v>22.9182578259231</v>
       </c>
       <c r="P3" t="n">
-        <v>331.0060835508089</v>
+        <v>331.3441085330538</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28312,28 +28534,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.7912437383569647</v>
+        <v>-0.8241726879821544</v>
       </c>
       <c r="J4" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K4" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06539948659426897</v>
+        <v>0.07148087851407703</v>
       </c>
       <c r="M4" t="n">
-        <v>18.7242955803815</v>
+        <v>18.71233272451112</v>
       </c>
       <c r="N4" t="n">
-        <v>490.987932693973</v>
+        <v>489.0802307470792</v>
       </c>
       <c r="O4" t="n">
-        <v>22.15824750953859</v>
+        <v>22.11515839299098</v>
       </c>
       <c r="P4" t="n">
-        <v>315.0138419327537</v>
+        <v>315.3485318875124</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28384,28 +28606,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.6494932610891226</v>
+        <v>-0.6604187491246675</v>
       </c>
       <c r="J5" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K5" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0594672798635415</v>
+        <v>0.06187110404625917</v>
       </c>
       <c r="M5" t="n">
-        <v>15.86593119556931</v>
+        <v>15.84177961820223</v>
       </c>
       <c r="N5" t="n">
-        <v>373.3701534960107</v>
+        <v>372.1923370461995</v>
       </c>
       <c r="O5" t="n">
-        <v>19.32278845032494</v>
+        <v>19.292286983305</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9907709290648</v>
+        <v>309.0975841438121</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28462,28 +28684,28 @@
         <v>0.0752</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.609554545693998</v>
+        <v>-0.620340107213556</v>
       </c>
       <c r="J6" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06753652330559945</v>
+        <v>0.07037127824549805</v>
       </c>
       <c r="M6" t="n">
-        <v>13.71117147739842</v>
+        <v>13.70059876069662</v>
       </c>
       <c r="N6" t="n">
-        <v>283.5742546941661</v>
+        <v>282.720135996543</v>
       </c>
       <c r="O6" t="n">
-        <v>16.83966314075689</v>
+        <v>16.81428368966526</v>
       </c>
       <c r="P6" t="n">
-        <v>310.403611339161</v>
+        <v>310.5096015041875</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28540,28 +28762,28 @@
         <v>0.0877</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.701937533113896</v>
+        <v>-0.6716794330461497</v>
       </c>
       <c r="J7" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K7" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07449407681796893</v>
+        <v>0.0684717025486411</v>
       </c>
       <c r="M7" t="n">
-        <v>15.23694063996187</v>
+        <v>15.30558795306881</v>
       </c>
       <c r="N7" t="n">
-        <v>351.2460753804768</v>
+        <v>354.3353291059207</v>
       </c>
       <c r="O7" t="n">
-        <v>18.74156011063318</v>
+        <v>18.82379688335806</v>
       </c>
       <c r="P7" t="n">
-        <v>306.4669382488814</v>
+        <v>306.1797586305759</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28612,28 +28834,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.729135233900707</v>
+        <v>-0.7808929957116029</v>
       </c>
       <c r="J8" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03710366094281936</v>
+        <v>0.04291427278418836</v>
       </c>
       <c r="M8" t="n">
-        <v>23.54674684473886</v>
+        <v>23.5199253391105</v>
       </c>
       <c r="N8" t="n">
-        <v>744.0034877379107</v>
+        <v>742.4831705994263</v>
       </c>
       <c r="O8" t="n">
-        <v>27.2764273272346</v>
+        <v>27.24854437579054</v>
       </c>
       <c r="P8" t="n">
-        <v>288.7422878520393</v>
+        <v>289.2641398046608</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28684,28 +28906,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4459084239851596</v>
+        <v>-0.3686498917276043</v>
       </c>
       <c r="J9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K9" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01401843365730504</v>
+        <v>0.009382352494260227</v>
       </c>
       <c r="M9" t="n">
-        <v>23.15523190144593</v>
+        <v>23.42418641986692</v>
       </c>
       <c r="N9" t="n">
-        <v>731.2759284153896</v>
+        <v>754.8112520064027</v>
       </c>
       <c r="O9" t="n">
-        <v>27.04211397830039</v>
+        <v>27.47382849197401</v>
       </c>
       <c r="P9" t="n">
-        <v>275.9796523113667</v>
+        <v>275.173881165215</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28756,28 +28978,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.8271949369028666</v>
+        <v>-0.7640072250388099</v>
       </c>
       <c r="J10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05342709747480723</v>
+        <v>0.04510971507478156</v>
       </c>
       <c r="M10" t="n">
-        <v>20.325104762482</v>
+        <v>20.47888621766197</v>
       </c>
       <c r="N10" t="n">
-        <v>652.4093276739812</v>
+        <v>668.7357059709379</v>
       </c>
       <c r="O10" t="n">
-        <v>25.54230466645446</v>
+        <v>25.85992470930528</v>
       </c>
       <c r="P10" t="n">
-        <v>295.6088165570663</v>
+        <v>294.9620762803407</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28828,28 +29050,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.9103026340730026</v>
+        <v>-0.8662150648563413</v>
       </c>
       <c r="J11" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K11" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08750217678124816</v>
+        <v>0.07939486893595404</v>
       </c>
       <c r="M11" t="n">
-        <v>16.1154649086584</v>
+        <v>16.22470018296002</v>
       </c>
       <c r="N11" t="n">
-        <v>500.6167105741033</v>
+        <v>507.3764151815245</v>
       </c>
       <c r="O11" t="n">
-        <v>22.37446559303939</v>
+        <v>22.5250175400936</v>
       </c>
       <c r="P11" t="n">
-        <v>311.1895193342987</v>
+        <v>310.7739795849771</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28906,28 +29128,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4886497747178606</v>
+        <v>-0.4758130313019092</v>
       </c>
       <c r="J12" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K12" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02887140669025057</v>
+        <v>0.02765625405203231</v>
       </c>
       <c r="M12" t="n">
-        <v>17.10791499491105</v>
+        <v>17.08394831111055</v>
       </c>
       <c r="N12" t="n">
-        <v>473.181851800835</v>
+        <v>471.6842495190446</v>
       </c>
       <c r="O12" t="n">
-        <v>21.75274354652385</v>
+        <v>21.71829296973048</v>
       </c>
       <c r="P12" t="n">
-        <v>312.6972109906816</v>
+        <v>312.5762924092484</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28984,28 +29206,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5987396578262744</v>
+        <v>-0.6629165395975092</v>
       </c>
       <c r="J13" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K13" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03002936183891403</v>
+        <v>0.03669037090682947</v>
       </c>
       <c r="M13" t="n">
-        <v>21.51431755752809</v>
+        <v>21.65497819956026</v>
       </c>
       <c r="N13" t="n">
-        <v>685.3238187934121</v>
+        <v>690.4176128415809</v>
       </c>
       <c r="O13" t="n">
-        <v>26.17869016573236</v>
+        <v>26.27579899530328</v>
       </c>
       <c r="P13" t="n">
-        <v>307.4338010290882</v>
+        <v>308.0357446066046</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29062,28 +29284,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8524994912721848</v>
+        <v>-0.8563048760963958</v>
       </c>
       <c r="J14" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K14" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06320271279135115</v>
+        <v>0.06500028083666709</v>
       </c>
       <c r="M14" t="n">
-        <v>20.49580325279246</v>
+        <v>20.31274893388463</v>
       </c>
       <c r="N14" t="n">
-        <v>630.1024971480797</v>
+        <v>623.9356911710095</v>
       </c>
       <c r="O14" t="n">
-        <v>25.10184250504492</v>
+        <v>24.97870475366986</v>
       </c>
       <c r="P14" t="n">
-        <v>312.1738405076961</v>
+        <v>312.2098933874539</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29134,28 +29356,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.9719232997286725</v>
+        <v>-0.9085073178158722</v>
       </c>
       <c r="J15" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K15" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09439283709561797</v>
+        <v>0.08361199048567969</v>
       </c>
       <c r="M15" t="n">
-        <v>18.05432487595873</v>
+        <v>18.16224492238388</v>
       </c>
       <c r="N15" t="n">
-        <v>514.8483292949716</v>
+        <v>520.3671117699645</v>
       </c>
       <c r="O15" t="n">
-        <v>22.69026948484684</v>
+        <v>22.81155653983227</v>
       </c>
       <c r="P15" t="n">
-        <v>319.8361975082411</v>
+        <v>319.2254796363592</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29206,28 +29428,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.8851969732307063</v>
+        <v>-0.7818863504715303</v>
       </c>
       <c r="J16" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K16" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08374674238684665</v>
+        <v>0.0646092101572916</v>
       </c>
       <c r="M16" t="n">
-        <v>16.35692005687236</v>
+        <v>16.62866009443389</v>
       </c>
       <c r="N16" t="n">
-        <v>491.8420140609508</v>
+        <v>513.8255674514675</v>
       </c>
       <c r="O16" t="n">
-        <v>22.17751144878412</v>
+        <v>22.6677208261322</v>
       </c>
       <c r="P16" t="n">
-        <v>324.4970044825772</v>
+        <v>323.4997667609034</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29278,28 +29500,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.3391298280278884</v>
+        <v>0.4162049530158609</v>
       </c>
       <c r="J17" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K17" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01767090138044303</v>
+        <v>0.02595287977948102</v>
       </c>
       <c r="M17" t="n">
-        <v>14.20928102135272</v>
+        <v>14.40219354587509</v>
       </c>
       <c r="N17" t="n">
-        <v>376.0619435836605</v>
+        <v>387.18225966556</v>
       </c>
       <c r="O17" t="n">
-        <v>19.39231661209306</v>
+        <v>19.67694741736025</v>
       </c>
       <c r="P17" t="n">
-        <v>319.1961703412035</v>
+        <v>318.473086733897</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29350,28 +29572,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.08531832242477569</v>
+        <v>0.1309576497797964</v>
       </c>
       <c r="J18" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K18" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001475527531511811</v>
+        <v>0.003464643018925684</v>
       </c>
       <c r="M18" t="n">
-        <v>13.36592384691948</v>
+        <v>13.45511966427654</v>
       </c>
       <c r="N18" t="n">
-        <v>285.7477875112067</v>
+        <v>289.1594353624668</v>
       </c>
       <c r="O18" t="n">
-        <v>16.9040760620392</v>
+        <v>17.00468862880079</v>
       </c>
       <c r="P18" t="n">
-        <v>332.0443430556728</v>
+        <v>331.6084056980544</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29428,28 +29650,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0697328264192518</v>
+        <v>-0.05676641030853454</v>
       </c>
       <c r="J19" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K19" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001095092871027603</v>
+        <v>0.0007374855612262143</v>
       </c>
       <c r="M19" t="n">
-        <v>12.95112222727644</v>
+        <v>12.89556302351365</v>
       </c>
       <c r="N19" t="n">
-        <v>258.2605913824654</v>
+        <v>256.7186959967472</v>
       </c>
       <c r="O19" t="n">
-        <v>16.07048821232465</v>
+        <v>16.0224435089267</v>
       </c>
       <c r="P19" t="n">
-        <v>328.1432651519813</v>
+        <v>328.0191622693428</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29500,28 +29722,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.3283877549900328</v>
+        <v>-0.3625086851802141</v>
       </c>
       <c r="J20" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K20" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01916554837935813</v>
+        <v>0.02337644530124328</v>
       </c>
       <c r="M20" t="n">
-        <v>14.18530231973334</v>
+        <v>14.25152503959882</v>
       </c>
       <c r="N20" t="n">
-        <v>316.3258145288514</v>
+        <v>317.6936392498545</v>
       </c>
       <c r="O20" t="n">
-        <v>17.78555072323743</v>
+        <v>17.82396250135908</v>
       </c>
       <c r="P20" t="n">
-        <v>329.5458819734352</v>
+        <v>329.8783316909031</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29578,28 +29800,28 @@
         <v>0.1008</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4247920344109726</v>
+        <v>-0.4520534831393107</v>
       </c>
       <c r="J21" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K21" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02713838599359553</v>
+        <v>0.03097935288496945</v>
       </c>
       <c r="M21" t="n">
-        <v>14.8049375166651</v>
+        <v>14.79822402739713</v>
       </c>
       <c r="N21" t="n">
-        <v>369.6774652156417</v>
+        <v>368.9014537560456</v>
       </c>
       <c r="O21" t="n">
-        <v>19.2269983412815</v>
+        <v>19.20680748474471</v>
       </c>
       <c r="P21" t="n">
-        <v>324.8873170175204</v>
+        <v>325.1529332677513</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29650,28 +29872,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.4975376095102502</v>
+        <v>-0.4472946084189175</v>
       </c>
       <c r="J22" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K22" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03800712888904678</v>
+        <v>0.03080720808434523</v>
       </c>
       <c r="M22" t="n">
-        <v>14.65128767486979</v>
+        <v>14.74446311925688</v>
       </c>
       <c r="N22" t="n">
-        <v>357.6875954184529</v>
+        <v>362.6210956790088</v>
       </c>
       <c r="O22" t="n">
-        <v>18.91263057901922</v>
+        <v>19.04261262744713</v>
       </c>
       <c r="P22" t="n">
-        <v>317.9283324608198</v>
+        <v>317.435042995027</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29722,28 +29944,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.4192978632257858</v>
+        <v>-0.3278050658696764</v>
       </c>
       <c r="J23" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03090113894769309</v>
+        <v>0.01795239163420548</v>
       </c>
       <c r="M23" t="n">
-        <v>14.44139187020775</v>
+        <v>14.74930043799015</v>
       </c>
       <c r="N23" t="n">
-        <v>315.9720821827473</v>
+        <v>340.0954643053652</v>
       </c>
       <c r="O23" t="n">
-        <v>17.77560356732641</v>
+        <v>18.44167737233697</v>
       </c>
       <c r="P23" t="n">
-        <v>310.7040191719725</v>
+        <v>309.8086442573239</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29800,28 +30022,28 @@
         <v>0.1434</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.439200378759644</v>
+        <v>-0.3506122558968548</v>
       </c>
       <c r="J24" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K24" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04312942490539595</v>
+        <v>0.02588804025750591</v>
       </c>
       <c r="M24" t="n">
-        <v>12.08649348120952</v>
+        <v>12.39312889315723</v>
       </c>
       <c r="N24" t="n">
-        <v>243.681933758375</v>
+        <v>265.9745638821938</v>
       </c>
       <c r="O24" t="n">
-        <v>15.61031497947351</v>
+        <v>16.3087266174338</v>
       </c>
       <c r="P24" t="n">
-        <v>312.5767341589452</v>
+        <v>311.7026090542001</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29872,28 +30094,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.1926044622510471</v>
+        <v>-0.1540013566800389</v>
       </c>
       <c r="J25" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K25" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0118782727226554</v>
+        <v>0.007590323598558824</v>
       </c>
       <c r="M25" t="n">
-        <v>10.55346101557701</v>
+        <v>10.67564183600775</v>
       </c>
       <c r="N25" t="n">
-        <v>176.6125663494041</v>
+        <v>179.3489654659598</v>
       </c>
       <c r="O25" t="n">
-        <v>13.28956607077162</v>
+        <v>13.39212326205071</v>
       </c>
       <c r="P25" t="n">
-        <v>310.2847647091824</v>
+        <v>309.9118849641039</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29950,28 +30172,28 @@
         <v>0.2</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1085002189737208</v>
+        <v>-0.08675033405365382</v>
       </c>
       <c r="J26" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K26" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003700171714154932</v>
+        <v>0.002397817243028344</v>
       </c>
       <c r="M26" t="n">
-        <v>10.51870301131787</v>
+        <v>10.51910627161115</v>
       </c>
       <c r="N26" t="n">
-        <v>180.1793373363164</v>
+        <v>179.8813479794447</v>
       </c>
       <c r="O26" t="n">
-        <v>13.42308970901693</v>
+        <v>13.41198523632668</v>
       </c>
       <c r="P26" t="n">
-        <v>313.2531851771197</v>
+        <v>313.0427368643394</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30022,28 +30244,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.1072688253779563</v>
+        <v>0.1335260635631503</v>
       </c>
       <c r="J27" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K27" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002802401253831577</v>
+        <v>0.004377129858961104</v>
       </c>
       <c r="M27" t="n">
-        <v>11.70229284873964</v>
+        <v>11.72852305253191</v>
       </c>
       <c r="N27" t="n">
-        <v>232.775292135169</v>
+        <v>232.8350650579666</v>
       </c>
       <c r="O27" t="n">
-        <v>15.25697519612485</v>
+        <v>15.25893394238164</v>
       </c>
       <c r="P27" t="n">
-        <v>318.7599555164336</v>
+        <v>318.5037582036251</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30100,28 +30322,28 @@
         <v>0.1158</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.06594704028048964</v>
+        <v>-0.004777423707757626</v>
       </c>
       <c r="J28" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K28" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0008943827607748034</v>
+        <v>4.596244016719098e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>12.91667165533361</v>
+        <v>13.08190755637422</v>
       </c>
       <c r="N28" t="n">
-        <v>275.7221709323945</v>
+        <v>284.6302774417937</v>
       </c>
       <c r="O28" t="n">
-        <v>16.60488394817605</v>
+        <v>16.87098922534757</v>
       </c>
       <c r="P28" t="n">
-        <v>331.9589056013156</v>
+        <v>331.3613145229011</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30178,28 +30400,28 @@
         <v>0.1241</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1386625181950939</v>
+        <v>-0.0669468860706558</v>
       </c>
       <c r="J29" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K29" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004752077244733255</v>
+        <v>0.001054574834278177</v>
       </c>
       <c r="M29" t="n">
-        <v>11.82294036143586</v>
+        <v>12.0565378004453</v>
       </c>
       <c r="N29" t="n">
-        <v>225.5673573026335</v>
+        <v>240.1479875311065</v>
       </c>
       <c r="O29" t="n">
-        <v>15.0189000030839</v>
+        <v>15.49670892580442</v>
       </c>
       <c r="P29" t="n">
-        <v>341.5168392824197</v>
+        <v>340.8079433011132</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30256,28 +30478,28 @@
         <v>0.0798</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2726611828454882</v>
+        <v>-0.2152939881761385</v>
       </c>
       <c r="J30" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K30" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01757773557655884</v>
+        <v>0.01076295459888155</v>
       </c>
       <c r="M30" t="n">
-        <v>12.23460154728692</v>
+        <v>12.40209958974977</v>
       </c>
       <c r="N30" t="n">
-        <v>232.9506137991392</v>
+        <v>241.3041527694442</v>
       </c>
       <c r="O30" t="n">
-        <v>15.26271973794773</v>
+        <v>15.53396770852329</v>
       </c>
       <c r="P30" t="n">
-        <v>343.6592369280031</v>
+        <v>343.0959828840489</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30334,28 +30556,28 @@
         <v>0.0711</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4038080830315994</v>
+        <v>-0.3566736466845575</v>
       </c>
       <c r="J31" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K31" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04174993782263314</v>
+        <v>0.03244493274732274</v>
       </c>
       <c r="M31" t="n">
-        <v>11.56085441883108</v>
+        <v>11.72227089851597</v>
       </c>
       <c r="N31" t="n">
-        <v>207.4581315449916</v>
+        <v>212.2981415406983</v>
       </c>
       <c r="O31" t="n">
-        <v>14.4034069422825</v>
+        <v>14.5704544040568</v>
       </c>
       <c r="P31" t="n">
-        <v>343.847439622338</v>
+        <v>343.3750945848409</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30412,28 +30634,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3861081667122997</v>
+        <v>-0.3363923104888084</v>
       </c>
       <c r="J32" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K32" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02798887267000083</v>
+        <v>0.02123313523321835</v>
       </c>
       <c r="M32" t="n">
-        <v>12.54121720635338</v>
+        <v>12.71734732427498</v>
       </c>
       <c r="N32" t="n">
-        <v>284.7441343661037</v>
+        <v>289.6243731118056</v>
       </c>
       <c r="O32" t="n">
-        <v>16.87436322846298</v>
+        <v>17.01835400712435</v>
       </c>
       <c r="P32" t="n">
-        <v>348.007205737985</v>
+        <v>347.5069839119111</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30490,28 +30712,28 @@
         <v>0.0796</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4615305331760965</v>
+        <v>-0.3935919202536109</v>
       </c>
       <c r="J33" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K33" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03680092871153384</v>
+        <v>0.0264387874433103</v>
       </c>
       <c r="M33" t="n">
-        <v>13.39787844084555</v>
+        <v>13.62760759677314</v>
       </c>
       <c r="N33" t="n">
-        <v>296.5315333726098</v>
+        <v>306.4966659605864</v>
       </c>
       <c r="O33" t="n">
-        <v>17.22009098038131</v>
+        <v>17.50704618034083</v>
       </c>
       <c r="P33" t="n">
-        <v>356.3809643024543</v>
+        <v>355.6817213496838</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30549,7 +30771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH263"/>
+  <dimension ref="A1:AH265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68557,6 +68779,322 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>-46.6654110370572,169.05636967079084</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>-46.6648603475797,169.05592835528446</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>-46.664443543298475,169.05525601858693</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>-46.66399589651305,169.05463689282732</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>-46.6635442538972,169.05398581703116</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>-46.662455469114434,169.05275293777913</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>-46.66084558615839,169.0486640931687</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>-46.66089484308588,169.047637868381</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>-46.66108010020145,169.04657353093148</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>-46.66102228265746,169.04564456714886</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>-46.66092380918367,169.04475280324772</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>-46.66074331586113,169.04397121115403</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>-46.66051115126831,169.04310845931292</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>-46.66022701313227,169.04219540063133</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>-46.66037738496364,169.04130483789743</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>-46.66066452471005,169.0404213497523</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>-46.66077707075585,169.03952882375452</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>-46.66079363550316,169.03863089239823</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>-46.660766833890214,169.037721472397</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>-46.660879790533606,169.0368355455726</t>
+        </is>
+      </c>
+      <c r="AA264" t="inlineStr">
+        <is>
+          <t>-46.66112315297238,169.0359774568172</t>
+        </is>
+      </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>-46.66141315321307,169.03512852670937</t>
+        </is>
+      </c>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t>-46.66157825123091,169.0342770168392</t>
+        </is>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>-46.66166895473141,169.03341540638067</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>-46.66189919239089,169.0325840651849</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>-46.66214197952833,169.0317519253643</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>-46.66240815535868,169.03092967619403</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>-46.66538683814367,169.05641142529976</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>-46.664914255682945,169.05583533863938</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>-46.664421287227746,169.05529442076158</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>-46.66332623155451,169.05296974683935</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>-46.66240599901565,169.05280485321697</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>-46.66275285050811,169.0513344103566</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>-46.66240724628383,169.05059066081475</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>-46.66201895288787,169.04989171064045</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>-46.66154474698836,169.04924672392667</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>-46.66080650561744,169.04868813176137</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>-46.6608643784863,169.04765483516442</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>-46.660910922116926,169.04666775498163</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>-46.661024671265125,169.04564323677258</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>-46.66095193991617,169.04473889113908</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>-46.660746761608976,169.0439705771437</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>-46.660604758954904,169.0431133062185</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>-46.66037785926906,169.0422032095337</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>-46.66026323514141,169.04129892996627</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>-46.66073404033241,169.04042494682434</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>-46.661020218319436,169.0395414026375</t>
+        </is>
+      </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>-46.6610442137898,169.03865749243704</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>-46.660833252361904,169.03773334000758</t>
+        </is>
+      </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>-46.66085271016521,169.0368302253056</t>
+        </is>
+      </c>
+      <c r="AA265" t="inlineStr">
+        <is>
+          <t>-46.661070413146064,169.0359670959864</t>
+        </is>
+      </c>
+      <c r="AB265" t="inlineStr">
+        <is>
+          <t>-46.66150325788236,169.03514622706473</t>
+        </is>
+      </c>
+      <c r="AC265" t="inlineStr">
+        <is>
+          <t>-46.661788801390436,169.0343353841529</t>
+        </is>
+      </c>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>-46.66184455878483,169.03348411332743</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>-46.6618469192552,169.03256195723344</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>-46.66209764654339,169.03173317597935</t>
+        </is>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>-46.66246946213151,169.03095560363928</t>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH265"/>
+  <dimension ref="A1:AH266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25308,9 +25308,7 @@
         <v>283.8372727272728</v>
       </c>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="n">
-        <v>248.5479012345679</v>
-      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -25399,17 +25397,17 @@
       <c r="D265" t="n">
         <v>275.1066666666667</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
+      <c r="E265" t="n">
+        <v>325.7148275862069</v>
+      </c>
+      <c r="F265" t="n">
+        <v>325.4381818181818</v>
+      </c>
       <c r="G265" t="n">
         <v>319.94</v>
       </c>
-      <c r="H265" t="n">
-        <v>241.7585185185185</v>
-      </c>
-      <c r="I265" t="n">
-        <v>336.4935294117647</v>
-      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>336.1943902439024</v>
       </c>
@@ -25483,6 +25481,98 @@
         <v>385.32</v>
       </c>
       <c r="AH265" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:33+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>311.56</v>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="n">
+        <v>311.9793103448276</v>
+      </c>
+      <c r="F266" t="n">
+        <v>310.9727272727272</v>
+      </c>
+      <c r="G266" t="n">
+        <v>304.33</v>
+      </c>
+      <c r="H266" t="n">
+        <v>284.854074074074</v>
+      </c>
+      <c r="I266" t="n">
+        <v>256.0541176470588</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>276.6909090909091</v>
+      </c>
+      <c r="M266" t="n">
+        <v>278.2432258064516</v>
+      </c>
+      <c r="N266" t="n">
+        <v>293.3244444444445</v>
+      </c>
+      <c r="O266" t="n">
+        <v>313.5455737704918</v>
+      </c>
+      <c r="P266" t="n">
+        <v>323.6263302752293</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>339.61</v>
+      </c>
+      <c r="R266" t="n">
+        <v>342.9768674698795</v>
+      </c>
+      <c r="S266" t="n">
+        <v>329.5528571428572</v>
+      </c>
+      <c r="T266" t="n">
+        <v>309.0853846153847</v>
+      </c>
+      <c r="U266" t="n">
+        <v>293.17</v>
+      </c>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="n">
+        <v>302.1033333333333</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>320.74</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>336.2070731707317</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>332.45</v>
+      </c>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="n">
+        <v>355.0453846153846</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>347.59</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>349.1</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>350.39</v>
+      </c>
+      <c r="AH266" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25499,7 +25589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28217,6 +28307,16 @@
       </c>
       <c r="B271" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -30771,7 +30871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH265"/>
+  <dimension ref="A1:AH266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68811,11 +68911,7 @@
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>-46.662455469114434,169.05275293777913</t>
-        </is>
-      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -68952,23 +69048,23 @@
           <t>-46.664421287227746,169.05529442076158</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>-46.664256760949456,169.0541867740835</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>-46.66379518861013,169.05358307902492</t>
+        </is>
+      </c>
       <c r="G265" t="inlineStr">
         <is>
           <t>-46.66332623155451,169.05296974683935</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>-46.66240599901565,169.05280485321697</t>
-        </is>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>-46.66275285050811,169.0513344103566</t>
-        </is>
-      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
           <t>-46.66240724628383,169.05059066081475</t>
@@ -69090,6 +69186,146 @@
         </is>
       </c>
       <c r="AH265" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:33+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>-46.66554731484114,169.0561345262856</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>-46.664177244989965,169.05432397881228</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>-46.663707933848656,169.05372311937484</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>-46.66322001214219,169.05310293193347</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>-46.66272000963874,169.05247531873238</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>-46.66216674274707,169.05194950508127</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>-46.66125999190411,169.0494895054566</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>-46.66100423397121,169.04856650787033</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>-46.66092391501504,169.04762167720327</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>-46.660893037562865,169.04667771577797</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>-46.66077704754613,169.0457811543636</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>-46.66071146356428,169.04485781865827</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>-46.660591970485875,169.0439990582871</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>-46.66051723435628,169.0431087742885</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>-46.66037652557057,169.0422031404916</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>-46.660276710330336,169.04129962738685</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>-46.660578621780225,169.03768784290688</t>
+        </is>
+      </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>-46.66084887971836,169.03682947276823</t>
+        </is>
+      </c>
+      <c r="AA266" t="inlineStr">
+        <is>
+          <t>-46.66109025847751,169.03597099463434</t>
+        </is>
+      </c>
+      <c r="AB266" t="inlineStr">
+        <is>
+          <t>-46.66116038800303,169.0350788732325</t>
+        </is>
+      </c>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>-46.661631137862564,169.03340061018548</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>-46.66175871372536,169.03252465243676</t>
+        </is>
+      </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>-46.66196430234643,169.03167678199236</t>
+        </is>
+      </c>
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t>-46.66216799157009,169.0308281082953</t>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -28490,28 +28490,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5073036888837892</v>
+        <v>-0.4938269187301572</v>
       </c>
       <c r="J2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05418167355525216</v>
+        <v>0.05178719976130119</v>
       </c>
       <c r="M2" t="n">
-        <v>13.24028713120041</v>
+        <v>13.24988076337182</v>
       </c>
       <c r="N2" t="n">
-        <v>258.2035927252405</v>
+        <v>257.9499435348069</v>
       </c>
       <c r="O2" t="n">
-        <v>16.06871471914417</v>
+        <v>16.06082013892214</v>
       </c>
       <c r="P2" t="n">
-        <v>310.3226465465667</v>
+        <v>310.1877662705444</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28565,7 +28565,7 @@
         <v>-1.431001309896385</v>
       </c>
       <c r="J3" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K3" t="n">
         <v>200</v>
@@ -28637,7 +28637,7 @@
         <v>-0.8241726879821544</v>
       </c>
       <c r="J4" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K4" t="n">
         <v>200</v>
@@ -28706,28 +28706,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.6604187491246675</v>
+        <v>-0.6102925206958904</v>
       </c>
       <c r="J5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K5" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06187110404625917</v>
+        <v>0.05339887160183376</v>
       </c>
       <c r="M5" t="n">
-        <v>15.84177961820223</v>
+        <v>15.95592819501186</v>
       </c>
       <c r="N5" t="n">
-        <v>372.1923370461995</v>
+        <v>375.8302634132737</v>
       </c>
       <c r="O5" t="n">
-        <v>19.292286983305</v>
+        <v>19.38634218756271</v>
       </c>
       <c r="P5" t="n">
-        <v>309.0975841438121</v>
+        <v>308.6046430025619</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28784,28 +28784,28 @@
         <v>0.0752</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.620340107213556</v>
+        <v>-0.5736465438232266</v>
       </c>
       <c r="J6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K6" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07037127824549805</v>
+        <v>0.06084627108679208</v>
       </c>
       <c r="M6" t="n">
-        <v>13.70059876069662</v>
+        <v>13.77976442537209</v>
       </c>
       <c r="N6" t="n">
-        <v>282.720135996543</v>
+        <v>285.9153692607853</v>
       </c>
       <c r="O6" t="n">
-        <v>16.81428368966526</v>
+        <v>16.90903217989679</v>
       </c>
       <c r="P6" t="n">
-        <v>310.5096015041875</v>
+        <v>310.0482138706484</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28862,28 +28862,28 @@
         <v>0.0877</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6716794330461497</v>
+        <v>-0.6566205462004824</v>
       </c>
       <c r="J7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K7" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0684717025486411</v>
+        <v>0.06611711555676791</v>
       </c>
       <c r="M7" t="n">
-        <v>15.30558795306881</v>
+        <v>15.30103728266595</v>
       </c>
       <c r="N7" t="n">
-        <v>354.3353291059207</v>
+        <v>353.7978220172847</v>
       </c>
       <c r="O7" t="n">
-        <v>18.82379688335806</v>
+        <v>18.80951413559863</v>
       </c>
       <c r="P7" t="n">
-        <v>306.1797586305759</v>
+        <v>306.0353871486215</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28934,28 +28934,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.7808929957116029</v>
+        <v>-0.7126146899481691</v>
       </c>
       <c r="J8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K8" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04291427278418836</v>
+        <v>0.03586262087126058</v>
       </c>
       <c r="M8" t="n">
-        <v>23.5199253391105</v>
+        <v>23.51098335383867</v>
       </c>
       <c r="N8" t="n">
-        <v>742.4831705994263</v>
+        <v>741.2357256874649</v>
       </c>
       <c r="O8" t="n">
-        <v>27.24854437579054</v>
+        <v>27.22564463309299</v>
       </c>
       <c r="P8" t="n">
-        <v>289.2641398046608</v>
+        <v>288.5739636004738</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29006,28 +29006,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.3686498917276043</v>
+        <v>-0.4549463291534386</v>
       </c>
       <c r="J9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K9" t="n">
         <v>186</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009382352494260227</v>
+        <v>0.01474802801537511</v>
       </c>
       <c r="M9" t="n">
-        <v>23.42418641986692</v>
+        <v>23.07478597368363</v>
       </c>
       <c r="N9" t="n">
-        <v>754.8112520064027</v>
+        <v>727.7052489764485</v>
       </c>
       <c r="O9" t="n">
-        <v>27.47382849197401</v>
+        <v>26.9760124736116</v>
       </c>
       <c r="P9" t="n">
-        <v>275.173881165215</v>
+        <v>276.0748255947854</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29081,7 +29081,7 @@
         <v>-0.7640072250388099</v>
       </c>
       <c r="J10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K10" t="n">
         <v>192</v>
@@ -29153,7 +29153,7 @@
         <v>-0.8662150648563413</v>
       </c>
       <c r="J11" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K11" t="n">
         <v>188</v>
@@ -29228,28 +29228,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4758130313019092</v>
+        <v>-0.4983451318751451</v>
       </c>
       <c r="J12" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K12" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02765625405203231</v>
+        <v>0.03041248265838492</v>
       </c>
       <c r="M12" t="n">
-        <v>17.08394831111055</v>
+        <v>17.12289428145162</v>
       </c>
       <c r="N12" t="n">
-        <v>471.6842495190446</v>
+        <v>472.031263666596</v>
       </c>
       <c r="O12" t="n">
-        <v>21.71829296973048</v>
+        <v>21.72628048393457</v>
       </c>
       <c r="P12" t="n">
-        <v>312.5762924092484</v>
+        <v>312.7908083681473</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29306,28 +29306,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6629165395975092</v>
+        <v>-0.6743363633988727</v>
       </c>
       <c r="J13" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K13" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03669037090682947</v>
+        <v>0.03826315538802372</v>
       </c>
       <c r="M13" t="n">
-        <v>21.65497819956026</v>
+        <v>21.61178017497895</v>
       </c>
       <c r="N13" t="n">
-        <v>690.4176128415809</v>
+        <v>687.807726622694</v>
       </c>
       <c r="O13" t="n">
-        <v>26.27579899530328</v>
+        <v>26.22608866420408</v>
       </c>
       <c r="P13" t="n">
-        <v>308.0357446066046</v>
+        <v>308.1441376448033</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29384,28 +29384,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8563048760963958</v>
+        <v>-0.8530172701726833</v>
       </c>
       <c r="J14" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K14" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06500028083666709</v>
+        <v>0.0651782461674687</v>
       </c>
       <c r="M14" t="n">
-        <v>20.31274893388463</v>
+        <v>20.22998599356453</v>
       </c>
       <c r="N14" t="n">
-        <v>623.9356911710095</v>
+        <v>620.9218160816642</v>
       </c>
       <c r="O14" t="n">
-        <v>24.97870475366986</v>
+        <v>24.91830283309167</v>
       </c>
       <c r="P14" t="n">
-        <v>312.2098933874539</v>
+        <v>312.1784061861071</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29456,28 +29456,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.9085073178158722</v>
+        <v>-0.8899800988980341</v>
       </c>
       <c r="J15" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K15" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08361199048567969</v>
+        <v>0.08113368084906614</v>
       </c>
       <c r="M15" t="n">
-        <v>18.16224492238388</v>
+        <v>18.15167917889097</v>
       </c>
       <c r="N15" t="n">
-        <v>520.3671117699645</v>
+        <v>519.3197387991553</v>
       </c>
       <c r="O15" t="n">
-        <v>22.81155653983227</v>
+        <v>22.78858790708971</v>
       </c>
       <c r="P15" t="n">
-        <v>319.2254796363592</v>
+        <v>319.044951618019</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29528,28 +29528,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.7818863504715303</v>
+        <v>-0.7611155561213115</v>
       </c>
       <c r="J16" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K16" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0646092101572916</v>
+        <v>0.06183935622278403</v>
       </c>
       <c r="M16" t="n">
-        <v>16.62866009443389</v>
+        <v>16.62823532727974</v>
       </c>
       <c r="N16" t="n">
-        <v>513.8255674514675</v>
+        <v>513.3095825514634</v>
       </c>
       <c r="O16" t="n">
-        <v>22.6677208261322</v>
+        <v>22.65633647683278</v>
       </c>
       <c r="P16" t="n">
-        <v>323.4997667609034</v>
+        <v>323.2969055520879</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29600,28 +29600,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.4162049530158609</v>
+        <v>0.4265817373190604</v>
       </c>
       <c r="J17" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K17" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02595287977948102</v>
+        <v>0.02750013577302035</v>
       </c>
       <c r="M17" t="n">
-        <v>14.40219354587509</v>
+        <v>14.37334412223232</v>
       </c>
       <c r="N17" t="n">
-        <v>387.18225966556</v>
+        <v>385.6724507617841</v>
       </c>
       <c r="O17" t="n">
-        <v>19.67694741736025</v>
+        <v>19.63854502659971</v>
       </c>
       <c r="P17" t="n">
-        <v>318.473086733897</v>
+        <v>318.3745840928752</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29672,28 +29672,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.1309576497797964</v>
+        <v>0.1380081044962905</v>
       </c>
       <c r="J18" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K18" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003464643018925684</v>
+        <v>0.003881196549552879</v>
       </c>
       <c r="M18" t="n">
-        <v>13.45511966427654</v>
+        <v>13.42474900201253</v>
       </c>
       <c r="N18" t="n">
-        <v>289.1594353624668</v>
+        <v>288.1037096361604</v>
       </c>
       <c r="O18" t="n">
-        <v>17.00468862880079</v>
+        <v>16.97361804790483</v>
       </c>
       <c r="P18" t="n">
-        <v>331.6084056980544</v>
+        <v>331.5402648681486</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29750,28 +29750,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.05676641030853454</v>
+        <v>-0.05422519166198598</v>
       </c>
       <c r="J19" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K19" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007374855612262143</v>
+        <v>0.0006792999479341422</v>
       </c>
       <c r="M19" t="n">
-        <v>12.89556302351365</v>
+        <v>12.84973097421</v>
       </c>
       <c r="N19" t="n">
-        <v>256.7186959967472</v>
+        <v>255.6176505219096</v>
       </c>
       <c r="O19" t="n">
-        <v>16.0224435089267</v>
+        <v>15.98804711407587</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0191622693428</v>
+        <v>327.9945672290324</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29822,28 +29822,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.3625086851802141</v>
+        <v>-0.3721490821738214</v>
       </c>
       <c r="J20" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02337644530124328</v>
+        <v>0.02478997260681648</v>
       </c>
       <c r="M20" t="n">
-        <v>14.25152503959882</v>
+        <v>14.24086176289769</v>
       </c>
       <c r="N20" t="n">
-        <v>317.6936392498545</v>
+        <v>316.8310529963878</v>
       </c>
       <c r="O20" t="n">
-        <v>17.82396250135908</v>
+        <v>17.79974867789958</v>
       </c>
       <c r="P20" t="n">
-        <v>329.8783316909031</v>
+        <v>329.9734292866241</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29900,28 +29900,28 @@
         <v>0.1008</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4520534831393107</v>
+        <v>-0.4695042470925174</v>
       </c>
       <c r="J21" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K21" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03097935288496945</v>
+        <v>0.03348796045346836</v>
       </c>
       <c r="M21" t="n">
-        <v>14.79822402739713</v>
+        <v>14.81179704890642</v>
       </c>
       <c r="N21" t="n">
-        <v>368.9014537560456</v>
+        <v>369.0461115025873</v>
       </c>
       <c r="O21" t="n">
-        <v>19.20680748474471</v>
+        <v>19.21057290927544</v>
       </c>
       <c r="P21" t="n">
-        <v>325.1529332677513</v>
+        <v>325.3249006562295</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29975,7 +29975,7 @@
         <v>-0.4472946084189175</v>
       </c>
       <c r="J22" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K22" t="n">
         <v>225</v>
@@ -30047,7 +30047,7 @@
         <v>-0.3278050658696764</v>
       </c>
       <c r="J23" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K23" t="n">
         <v>215</v>
@@ -30125,7 +30125,7 @@
         <v>-0.3506122558968548</v>
       </c>
       <c r="J24" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K24" t="n">
         <v>205</v>
@@ -30194,28 +30194,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.1540013566800389</v>
+        <v>-0.1573979762527492</v>
       </c>
       <c r="J25" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K25" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007590323598558824</v>
+        <v>0.008003369480242495</v>
       </c>
       <c r="M25" t="n">
-        <v>10.67564183600775</v>
+        <v>10.64122758003895</v>
       </c>
       <c r="N25" t="n">
-        <v>179.3489654659598</v>
+        <v>178.5767107098388</v>
       </c>
       <c r="O25" t="n">
-        <v>13.39212326205071</v>
+        <v>13.3632597336817</v>
       </c>
       <c r="P25" t="n">
-        <v>309.9118849641039</v>
+        <v>309.945071259701</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30272,28 +30272,28 @@
         <v>0.2</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.08675033405365382</v>
+        <v>-0.07783840409349597</v>
       </c>
       <c r="J26" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K26" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002397817243028344</v>
+        <v>0.001946083896794293</v>
       </c>
       <c r="M26" t="n">
-        <v>10.51910627161115</v>
+        <v>10.51012448682954</v>
       </c>
       <c r="N26" t="n">
-        <v>179.8813479794447</v>
+        <v>179.5034012582947</v>
       </c>
       <c r="O26" t="n">
-        <v>13.41198523632668</v>
+        <v>13.39788794020515</v>
       </c>
       <c r="P26" t="n">
-        <v>313.0427368643394</v>
+        <v>312.9555011654221</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30344,28 +30344,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.1335260635631503</v>
+        <v>0.1457412567365646</v>
       </c>
       <c r="J27" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K27" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004377129858961104</v>
+        <v>0.005240145596798307</v>
       </c>
       <c r="M27" t="n">
-        <v>11.72852305253191</v>
+        <v>11.73696485996274</v>
       </c>
       <c r="N27" t="n">
-        <v>232.8350650579666</v>
+        <v>232.6839509220981</v>
       </c>
       <c r="O27" t="n">
-        <v>15.25893394238164</v>
+        <v>15.25398147770273</v>
       </c>
       <c r="P27" t="n">
-        <v>318.5037582036251</v>
+        <v>318.3831479810744</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30422,28 +30422,28 @@
         <v>0.1158</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.004777423707757626</v>
+        <v>-0.00372790895160273</v>
       </c>
       <c r="J28" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K28" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L28" t="n">
-        <v>4.596244016719098e-06</v>
+        <v>2.825725466726325e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>13.08190755637422</v>
+        <v>13.02768149633618</v>
       </c>
       <c r="N28" t="n">
-        <v>284.6302774417937</v>
+        <v>283.3547003418469</v>
       </c>
       <c r="O28" t="n">
-        <v>16.87098922534757</v>
+        <v>16.83314291336728</v>
       </c>
       <c r="P28" t="n">
-        <v>331.3613145229011</v>
+        <v>331.3509429595526</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30503,7 +30503,7 @@
         <v>-0.0669468860706558</v>
       </c>
       <c r="J29" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K29" t="n">
         <v>223</v>
@@ -30578,28 +30578,28 @@
         <v>0.0798</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2152939881761385</v>
+        <v>-0.1998720464123048</v>
       </c>
       <c r="J30" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01076295459888155</v>
+        <v>0.00932808171064281</v>
       </c>
       <c r="M30" t="n">
-        <v>12.40209958974977</v>
+        <v>12.42389868805691</v>
       </c>
       <c r="N30" t="n">
-        <v>241.3041527694442</v>
+        <v>241.5894912373933</v>
       </c>
       <c r="O30" t="n">
-        <v>15.53396770852329</v>
+        <v>15.54314933459089</v>
       </c>
       <c r="P30" t="n">
-        <v>343.0959828840489</v>
+        <v>342.9428801495962</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30656,28 +30656,28 @@
         <v>0.0711</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.3566736466845575</v>
+        <v>-0.3449467242220581</v>
       </c>
       <c r="J31" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K31" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03244493274732274</v>
+        <v>0.03057590747670991</v>
       </c>
       <c r="M31" t="n">
-        <v>11.72227089851597</v>
+        <v>11.73552655398868</v>
       </c>
       <c r="N31" t="n">
-        <v>212.2981415406983</v>
+        <v>212.1565258715861</v>
       </c>
       <c r="O31" t="n">
-        <v>14.5704544040568</v>
+        <v>14.56559390727292</v>
       </c>
       <c r="P31" t="n">
-        <v>343.3750945848409</v>
+        <v>343.256191270651</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30734,28 +30734,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3363923104888084</v>
+        <v>-0.3274433343683373</v>
       </c>
       <c r="J32" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K32" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02123313523321835</v>
+        <v>0.0202945864723697</v>
       </c>
       <c r="M32" t="n">
-        <v>12.71734732427498</v>
+        <v>12.71292553585226</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6243731118056</v>
+        <v>288.8103702496788</v>
       </c>
       <c r="O32" t="n">
-        <v>17.01835400712435</v>
+        <v>16.99442173919662</v>
       </c>
       <c r="P32" t="n">
-        <v>347.5069839119111</v>
+        <v>347.4158964715352</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30812,28 +30812,28 @@
         <v>0.0796</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3935919202536109</v>
+        <v>-0.3890064309918165</v>
       </c>
       <c r="J33" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K33" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0264387874433103</v>
+        <v>0.02608308687721095</v>
       </c>
       <c r="M33" t="n">
-        <v>13.62760759677314</v>
+        <v>13.5879897538927</v>
       </c>
       <c r="N33" t="n">
-        <v>306.4966659605864</v>
+        <v>305.191837095482</v>
       </c>
       <c r="O33" t="n">
-        <v>17.50704618034083</v>
+        <v>17.46974061328565</v>
       </c>
       <c r="P33" t="n">
-        <v>355.6817213496838</v>
+        <v>355.6340050780778</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">

--- a/data/nzd0560/nzd0560.xlsx
+++ b/data/nzd0560/nzd0560.xlsx
@@ -28481,13 +28481,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0732</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.1765</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4938269187301572</v>
@@ -28558,9 +28558,15 @@
       <c r="E3" t="n">
         <v>0.9677123938325695</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0501</v>
+      </c>
       <c r="I3" t="n">
         <v>-1.431017953540995</v>
       </c>
@@ -28630,9 +28636,15 @@
       <c r="E4" t="n">
         <v>0.9354247876641094</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0344</v>
+      </c>
       <c r="I4" t="n">
         <v>-0.8241491081205942</v>
       </c>
@@ -28702,9 +28714,15 @@
       <c r="E5" t="n">
         <v>0.9031371814956495</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0774</v>
+      </c>
       <c r="I5" t="n">
         <v>-0.6102848300856462</v>
       </c>
@@ -28775,13 +28793,13 @@
         <v>0.8708495753269665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0449</v>
+        <v>0.0468</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0752</v>
+        <v>0.0596</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5736242294301849</v>
@@ -28853,13 +28871,13 @@
         <v>0.838763427463306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0474</v>
+        <v>0.0275</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0877</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
         <v>-0.6566320607562054</v>
@@ -28930,9 +28948,15 @@
       <c r="E8" t="n">
         <v>0.8064758212953104</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0326</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.7126433792626616</v>
       </c>
@@ -29002,9 +29026,15 @@
       <c r="E9" t="n">
         <v>0.7741882151273148</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0309</v>
+      </c>
       <c r="I9" t="n">
         <v>-0.4549597166976878</v>
       </c>
@@ -29074,9 +29104,15 @@
       <c r="E10" t="n">
         <v>0.741900608958488</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0409</v>
+      </c>
       <c r="I10" t="n">
         <v>-0.7640631253769284</v>
       </c>
@@ -29146,9 +29182,15 @@
       <c r="E11" t="n">
         <v>0.709613002790325</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0649</v>
+      </c>
       <c r="I11" t="n">
         <v>-0.866199732780671</v>
       </c>
@@ -29219,13 +29261,13 @@
         <v>0.6773253966223294</v>
       </c>
       <c r="F12" t="n">
-        <v>0.165</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.0441</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.1385</v>
       </c>
       <c r="I12" t="n">
         <v>-0.4984056254319808</v>
@@ -29297,13 +29339,13 @@
         <v>0.6452500797751592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.155</v>
+        <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0764</v>
+        <v>0.0405</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.0963</v>
       </c>
       <c r="I13" t="n">
         <v>-0.674289494179192</v>
@@ -29375,10 +29417,10 @@
         <v>0.6129624736075191</v>
       </c>
       <c r="F14" t="n">
-        <v>0.135</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.0524</v>
       </c>
       <c r="H14" t="n">
         <v>0.2</v>
@@ -29452,9 +29494,15 @@
       <c r="E15" t="n">
         <v>0.5806748674397811</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0604</v>
+      </c>
       <c r="I15" t="n">
         <v>-0.8899875258995136</v>
       </c>
@@ -29524,9 +29572,15 @@
       <c r="E16" t="n">
         <v>0.5483872612709058</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0507</v>
+      </c>
       <c r="I16" t="n">
         <v>-0.7611285131532389</v>
       </c>
@@ -29596,9 +29650,15 @@
       <c r="E17" t="n">
         <v>0.5160996551021283</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0455</v>
+      </c>
       <c r="I17" t="n">
         <v>0.4266298795875259</v>
       </c>
@@ -29668,9 +29728,15 @@
       <c r="E18" t="n">
         <v>0.4842142822028084</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0552</v>
+      </c>
       <c r="I18" t="n">
         <v>0.1379899448895028</v>
       </c>
@@ -29741,13 +29807,13 @@
         <v>0.4519266760341001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0584</v>
+        <v>0.0387</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>-0.05421374232705047</v>
@@ -29818,9 +29884,15 @@
       <c r="E20" t="n">
         <v>0.4196390698653918</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0559</v>
+      </c>
       <c r="I20" t="n">
         <v>-0.3721204753949875</v>
       </c>
@@ -29891,13 +29963,13 @@
         <v>0.3873514636978623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0448</v>
+        <v>0.0298</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1008</v>
+        <v>0.0507</v>
       </c>
       <c r="I21" t="n">
         <v>-0.4695208526076752</v>
@@ -29968,9 +30040,15 @@
       <c r="E22" t="n">
         <v>0.3550638575291751</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0745</v>
+      </c>
       <c r="I22" t="n">
         <v>-0.4472470719616998</v>
       </c>
@@ -30040,9 +30118,15 @@
       <c r="E23" t="n">
         <v>0.3227762513604036</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0484</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1041</v>
+      </c>
       <c r="I23" t="n">
         <v>-0.3278065981547539</v>
       </c>
@@ -30113,13 +30197,13 @@
         <v>0.2904886451917374</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0765</v>
+        <v>0.0679</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1434</v>
+        <v>0.1464</v>
       </c>
       <c r="I24" t="n">
         <v>-0.3506122558968542</v>
@@ -30190,9 +30274,15 @@
       <c r="E25" t="n">
         <v>0.2582300831481013</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0917</v>
+      </c>
       <c r="I25" t="n">
         <v>-0.1574145534324856</v>
       </c>
@@ -30263,13 +30353,13 @@
         <v>0.2259424769797231</v>
       </c>
       <c r="F26" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0892</v>
+        <v>0.0644</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="I26" t="n">
         <v>-0.07783840409349597</v>
@@ -30340,9 +30430,15 @@
       <c r="E27" t="n">
         <v>0.1936548708112944</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.06270000000000001</v>
+      </c>
       <c r="I27" t="n">
         <v>0.1457471142175548</v>
       </c>
@@ -30413,13 +30509,13 @@
         <v>0.1613672646430679</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08</v>
+        <v>0.045</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0639</v>
+        <v>0.0354</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1158</v>
+        <v>0.0588</v>
       </c>
       <c r="I28" t="n">
         <v>-0.003755035385962543</v>
@@ -30491,13 +30587,13 @@
         <v>0.1290796584746897</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09</v>
+        <v>0.045</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1241</v>
+        <v>0.0577</v>
       </c>
       <c r="I29" t="n">
         <v>-0.06693084498381847</v>
@@ -30569,13 +30665,13 @@
         <v>0.09686281850453092</v>
       </c>
       <c r="F30" t="n">
-        <v>0.065</v>
+        <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0529</v>
+        <v>0.0337</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0798</v>
+        <v>0.0459</v>
       </c>
       <c r="I30" t="n">
         <v>-0.1998405905274556</v>
@@ -30647,13 +30743,13 @@
         <v>0.06457521233622873</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05</v>
+        <v>0.0348</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0711</v>
+        <v>0.0523</v>
       </c>
       <c r="I31" t="n">
         <v>-0.3449557609881303</v>
@@ -30725,13 +30821,13 @@
         <v>0.03228760616811437</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0542</v>
+        <v>0.0382</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0591</v>
       </c>
       <c r="I32" t="n">
         <v>-0.3274531313004293</v>
@@ -30803,13 +30899,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0486</v>
+        <v>0.0254</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0796</v>
+        <v>0.0373</v>
       </c>
       <c r="I33" t="n">
         <v>-0.3890186472952352</v>
